--- a/thematic_report_2023/data/all_icpw_stations_all_projects.xlsx
+++ b/thematic_report_2023/data/all_icpw_stations_all_projects.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1977"/>
+  <dimension ref="A1:G1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fævatnet</t>
+          <t>Følvatnet</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DE13</t>
+          <t>DE13_ARKIV</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DE24</t>
+          <t>DE24_ARKIV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>53</v>
+        <v>53.0040538</v>
       </c>
       <c r="F119" t="n">
-        <v>-6.35</v>
+        <v>-6.3547831</v>
       </c>
       <c r="G119" t="n">
         <v>133</v>
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>53</v>
+        <v>53.0050505</v>
       </c>
       <c r="F120" t="n">
-        <v>-6.383333</v>
+        <v>-6.3752293</v>
       </c>
       <c r="G120" t="n">
         <v>133</v>
@@ -3692,10 +3692,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53</v>
+        <v>53.0047252</v>
       </c>
       <c r="F121" t="n">
-        <v>-6.35</v>
+        <v>-6.3461847</v>
       </c>
       <c r="G121" t="n">
         <v>133</v>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>IE04</t>
+          <t>IE04_ARKIV</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>53.47738</v>
+        <v>53.4790455</v>
       </c>
       <c r="F123" t="n">
-        <v>-9.541</v>
+        <v>-9.541335200000001</v>
       </c>
       <c r="G123" t="n">
         <v>48</v>
@@ -3773,10 +3773,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53.466667</v>
+        <v>53.4759565</v>
       </c>
       <c r="F124" t="n">
-        <v>-9.533333000000001</v>
+        <v>-9.5462179</v>
       </c>
       <c r="G124" t="n">
         <v>48</v>
@@ -3800,10 +3800,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>53.483333</v>
+        <v>53.4810372</v>
       </c>
       <c r="F125" t="n">
-        <v>-9.533333000000001</v>
+        <v>-9.5446939</v>
       </c>
       <c r="G125" t="n">
         <v>48</v>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>55.04752</v>
+        <v>55.0463516</v>
       </c>
       <c r="F126" t="n">
-        <v>-7.95363</v>
+        <v>-7.9561828</v>
       </c>
       <c r="G126" t="inlineStr"/>
     </row>
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>55.133333</v>
+        <v>55.0122578</v>
       </c>
       <c r="F127" t="n">
-        <v>-7.7</v>
+        <v>-8.0098798</v>
       </c>
       <c r="G127" t="inlineStr"/>
     </row>
@@ -3877,10 +3877,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>55.133333</v>
+        <v>55.0204798</v>
       </c>
       <c r="F128" t="n">
-        <v>-7.7</v>
+        <v>-7.9886863</v>
       </c>
       <c r="G128" t="inlineStr"/>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>US102</t>
+          <t>US_1C3-076</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>US103</t>
+          <t>US_PAIN</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>US104</t>
+          <t>US_PINE</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>US105</t>
+          <t>US_STAN</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>US125</t>
+          <t>US_1C1-092</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>US27</t>
+          <t>US_020058O</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>US34</t>
+          <t>US_030172E</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>US48</t>
+          <t>US_050215AO</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>US82</t>
+          <t>US_ME-9998E</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>US84</t>
+          <t>US_BNR</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>US85</t>
+          <t>US_LNN</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>US86</t>
+          <t>US_RBS</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>US87</t>
+          <t>US_STN</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>US88</t>
+          <t>US_WWW</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>US91</t>
+          <t>US_1C1-091</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>US93</t>
+          <t>US_1C1-095</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>US94</t>
+          <t>US_1C1-096</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>US98</t>
+          <t>US_1C1-107</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -34317,7 +34317,7 @@
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>US127</t>
+          <t>US_1A2-076O</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr">
@@ -35412,7 +35412,7 @@
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>1C1-106</t>
+          <t>US_1C1-106</t>
         </is>
       </c>
       <c r="D1314" t="inlineStr">
@@ -47079,512 +47079,476 @@
         <v>1751</v>
       </c>
       <c r="B1753" t="n">
-        <v>38318</v>
+        <v>38810</v>
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>GA-04</t>
+          <t>AM_001</t>
         </is>
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>Dlugi Staw Gasienicowy</t>
+          <t>Pambak river, 0.5 km above Khnkoyan village</t>
         </is>
       </c>
       <c r="E1753" t="n">
-        <v>49.227812</v>
+        <v>40.83931527777778</v>
       </c>
       <c r="F1753" t="n">
-        <v>20.008842</v>
-      </c>
-      <c r="G1753" t="n">
-        <v>1779</v>
-      </c>
+        <v>44.04891083333333</v>
+      </c>
+      <c r="G1753" t="inlineStr"/>
     </row>
     <row r="1754">
       <c r="A1754" s="1" t="n">
         <v>1752</v>
       </c>
       <c r="B1754" t="n">
-        <v>38319</v>
+        <v>38811</v>
       </c>
       <c r="C1754" t="inlineStr">
         <is>
-          <t>GA-07</t>
+          <t>AM_057</t>
         </is>
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>Zielony Staw Gasienicowy</t>
+          <t xml:space="preserve">Marmarik river, 0.5 km above Hankavan village </t>
         </is>
       </c>
       <c r="E1754" t="n">
-        <v>49.229305</v>
+        <v>40.66360527777778</v>
       </c>
       <c r="F1754" t="n">
-        <v>19.997741</v>
-      </c>
-      <c r="G1754" t="n">
-        <v>1673</v>
-      </c>
+        <v>44.46602861111111</v>
+      </c>
+      <c r="G1754" t="inlineStr"/>
     </row>
     <row r="1755">
       <c r="A1755" s="1" t="n">
         <v>1753</v>
       </c>
       <c r="B1755" t="n">
-        <v>38320</v>
+        <v>38812</v>
       </c>
       <c r="C1755" t="inlineStr">
         <is>
-          <t>MO-01</t>
+          <t>AM_080</t>
         </is>
       </c>
       <c r="D1755" t="inlineStr">
         <is>
-          <t>Czarny Staw pod Rysami</t>
+          <t xml:space="preserve">Vedi river, 0.5 km above Urtsadzor village </t>
         </is>
       </c>
       <c r="E1755" t="n">
-        <v>49.1888</v>
+        <v>39.92117416666667</v>
       </c>
       <c r="F1755" t="n">
-        <v>20.0778</v>
-      </c>
-      <c r="G1755" t="n">
-        <v>1582</v>
-      </c>
+        <v>44.81964888888889</v>
+      </c>
+      <c r="G1755" t="inlineStr"/>
     </row>
     <row r="1756">
       <c r="A1756" s="1" t="n">
         <v>1754</v>
       </c>
       <c r="B1756" t="n">
-        <v>38321</v>
+        <v>38813</v>
       </c>
       <c r="C1756" t="inlineStr">
         <is>
-          <t>MO-02</t>
+          <t>AM_083</t>
         </is>
       </c>
       <c r="D1756" t="inlineStr">
         <is>
-          <t>Morskie oko</t>
+          <t xml:space="preserve">Arpa river, 0.5 km above Jermuk town </t>
         </is>
       </c>
       <c r="E1756" t="n">
-        <v>49.1978</v>
+        <v>39.843045</v>
       </c>
       <c r="F1756" t="n">
-        <v>20.0722</v>
-      </c>
-      <c r="G1756" t="n">
-        <v>1395</v>
-      </c>
+        <v>45.68615111111111</v>
+      </c>
+      <c r="G1756" t="inlineStr"/>
     </row>
     <row r="1757">
       <c r="A1757" s="1" t="n">
         <v>1755</v>
       </c>
       <c r="B1757" t="n">
-        <v>38322</v>
+        <v>38814</v>
       </c>
       <c r="C1757" t="inlineStr">
         <is>
-          <t>MO-06</t>
+          <t>AM_089</t>
         </is>
       </c>
       <c r="D1757" t="inlineStr">
         <is>
-          <t>Wyzni Mnichowy Stawek, Najwiekszy (IX)</t>
+          <t xml:space="preserve">Meghri river, 0.5 km above Meghri town </t>
         </is>
       </c>
       <c r="E1757" t="n">
-        <v>49.194171</v>
+        <v>38.91526833333333</v>
       </c>
       <c r="F1757" t="n">
-        <v>20.053662</v>
-      </c>
-      <c r="G1757" t="n">
-        <v>1865</v>
-      </c>
+        <v>46.23370277777778</v>
+      </c>
+      <c r="G1757" t="inlineStr"/>
     </row>
     <row r="1758">
       <c r="A1758" s="1" t="n">
         <v>1756</v>
       </c>
       <c r="B1758" t="n">
-        <v>38323</v>
+        <v>38815</v>
       </c>
       <c r="C1758" t="inlineStr">
         <is>
-          <t>BA-01</t>
+          <t>AM_097</t>
         </is>
       </c>
       <c r="D1758" t="inlineStr">
         <is>
-          <t>Batizovské pleso</t>
+          <t xml:space="preserve">Geghi river, 0.5 km above Ajabaj town </t>
         </is>
       </c>
       <c r="E1758" t="n">
-        <v>49.15203</v>
+        <v>39.25480361111111</v>
       </c>
       <c r="F1758" t="n">
-        <v>20.12988</v>
-      </c>
-      <c r="G1758" t="n">
-        <v>1884</v>
-      </c>
+        <v>46.07274972222222</v>
+      </c>
+      <c r="G1758" t="inlineStr"/>
     </row>
     <row r="1759">
       <c r="A1759" s="1" t="n">
         <v>1757</v>
       </c>
       <c r="B1759" t="n">
-        <v>38324</v>
+        <v>38816</v>
       </c>
       <c r="C1759" t="inlineStr">
         <is>
-          <t>FU-01</t>
+          <t>AM_099</t>
         </is>
       </c>
       <c r="D1759" t="inlineStr">
         <is>
-          <t>Vyšné Wahlenbergovo pleso</t>
+          <t xml:space="preserve">Vorotan river, 0.5 km  above Gorayk village </t>
         </is>
       </c>
       <c r="E1759" t="n">
-        <v>49.16383</v>
+        <v>39.68971611111111</v>
       </c>
       <c r="F1759" t="n">
-        <v>20.02567</v>
-      </c>
-      <c r="G1759" t="n">
-        <v>2150</v>
-      </c>
+        <v>45.77689166666666</v>
+      </c>
+      <c r="G1759" t="inlineStr"/>
     </row>
     <row r="1760">
       <c r="A1760" s="1" t="n">
         <v>1758</v>
       </c>
       <c r="B1760" t="n">
-        <v>38325</v>
+        <v>38817</v>
       </c>
       <c r="C1760" t="inlineStr">
         <is>
-          <t>ME-01</t>
+          <t>AM_103</t>
         </is>
       </c>
       <c r="D1760" t="inlineStr">
         <is>
-          <t>Velké Hincovo pleso</t>
+          <t xml:space="preserve">Sisian river, 0.5 km above Sisian village </t>
         </is>
       </c>
       <c r="E1760" t="n">
-        <v>49.17917</v>
+        <v>39.40451638888889</v>
       </c>
       <c r="F1760" t="n">
-        <v>20.05904</v>
-      </c>
-      <c r="G1760" t="n">
-        <v>1953</v>
-      </c>
+        <v>45.90581222222222</v>
+      </c>
+      <c r="G1760" t="inlineStr"/>
     </row>
     <row r="1761">
       <c r="A1761" s="1" t="n">
         <v>1759</v>
       </c>
       <c r="B1761" t="n">
-        <v>38326</v>
+        <v>38818</v>
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>ME-02</t>
+          <t>AM_106</t>
         </is>
       </c>
       <c r="D1761" t="inlineStr">
         <is>
-          <t>Malé Hincovo pleso</t>
+          <t xml:space="preserve">Vararak river, 5 km above Goris town </t>
         </is>
       </c>
       <c r="E1761" t="n">
-        <v>49.17398</v>
+        <v>39.52872</v>
       </c>
       <c r="F1761" t="n">
-        <v>20.05742</v>
-      </c>
-      <c r="G1761" t="n">
-        <v>1927</v>
-      </c>
+        <v>46.32080277777778</v>
+      </c>
+      <c r="G1761" t="inlineStr"/>
     </row>
     <row r="1762">
       <c r="A1762" s="1" t="n">
         <v>1760</v>
       </c>
       <c r="B1762" t="n">
-        <v>38327</v>
+        <v>38819</v>
       </c>
       <c r="C1762" t="inlineStr">
         <is>
-          <t>ME-04</t>
+          <t>AM_210</t>
         </is>
       </c>
       <c r="D1762" t="inlineStr">
         <is>
-          <t>Vyšné Satanie pliesko</t>
+          <t>Gargar river, Source of the river</t>
         </is>
       </c>
       <c r="E1762" t="n">
-        <v>49.17006</v>
+        <v>40.9619625</v>
       </c>
       <c r="F1762" t="n">
-        <v>20.06079</v>
-      </c>
-      <c r="G1762" t="n">
-        <v>1903</v>
-      </c>
+        <v>44.43272055555556</v>
+      </c>
+      <c r="G1762" t="inlineStr"/>
     </row>
     <row r="1763">
       <c r="A1763" s="1" t="n">
         <v>1761</v>
       </c>
       <c r="B1763" t="n">
-        <v>38328</v>
+        <v>38820</v>
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>NE-01</t>
+          <t>NL_DEE</t>
         </is>
       </c>
       <c r="D1763" t="inlineStr">
         <is>
-          <t>Vyšné Terianske pleso</t>
+          <t>Deelense Was</t>
         </is>
       </c>
       <c r="E1763" t="n">
-        <v>49.16774</v>
+        <v>52.0928</v>
       </c>
       <c r="F1763" t="n">
-        <v>20.02059</v>
-      </c>
-      <c r="G1763" t="n">
-        <v>2112</v>
-      </c>
+        <v>5.85798</v>
+      </c>
+      <c r="G1763" t="inlineStr"/>
     </row>
     <row r="1764">
       <c r="A1764" s="1" t="n">
         <v>1762</v>
       </c>
       <c r="B1764" t="n">
-        <v>38329</v>
+        <v>38821</v>
       </c>
       <c r="C1764" t="inlineStr">
         <is>
-          <t>NE-03</t>
+          <t>NL_DIE</t>
         </is>
       </c>
       <c r="D1764" t="inlineStr">
         <is>
-          <t>Nižné Terianske pleso</t>
+          <t>Diepveen</t>
         </is>
       </c>
       <c r="E1764" t="n">
-        <v>49.16966</v>
+        <v>52.8185</v>
       </c>
       <c r="F1764" t="n">
-        <v>20.01287</v>
-      </c>
-      <c r="G1764" t="n">
-        <v>1943</v>
-      </c>
+        <v>6.43947</v>
+      </c>
+      <c r="G1764" t="inlineStr"/>
     </row>
     <row r="1765">
       <c r="A1765" s="1" t="n">
         <v>1763</v>
       </c>
       <c r="B1765" t="n">
-        <v>38330</v>
+        <v>38822</v>
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t>RO-01</t>
+          <t>NL_ECH</t>
         </is>
       </c>
       <c r="D1765" t="inlineStr">
         <is>
-          <t>Štvrté Rohácske pleso</t>
+          <t>Echtenerzand</t>
         </is>
       </c>
       <c r="E1765" t="n">
-        <v>49.20589</v>
+        <v>52.72236</v>
       </c>
       <c r="F1765" t="n">
-        <v>19.73576</v>
-      </c>
-      <c r="G1765" t="n">
-        <v>1719</v>
-      </c>
+        <v>6.38841</v>
+      </c>
+      <c r="G1765" t="inlineStr"/>
     </row>
     <row r="1766">
       <c r="A1766" s="1" t="n">
         <v>1764</v>
       </c>
       <c r="B1766" t="n">
-        <v>38331</v>
+        <v>38823</v>
       </c>
       <c r="C1766" t="inlineStr">
         <is>
-          <t>SL-02</t>
+          <t>NL_GHU</t>
         </is>
       </c>
       <c r="D1766" t="inlineStr">
         <is>
-          <t>Slavkovské pleso</t>
+          <t>Groot Huisven</t>
         </is>
       </c>
       <c r="E1766" t="n">
-        <v>49.1526</v>
+        <v>51.5772</v>
       </c>
       <c r="F1766" t="n">
-        <v>20.18326</v>
-      </c>
-      <c r="G1766" t="n">
-        <v>1676</v>
-      </c>
+        <v>5.26197</v>
+      </c>
+      <c r="G1766" t="inlineStr"/>
     </row>
     <row r="1767">
       <c r="A1767" s="1" t="n">
         <v>1765</v>
       </c>
       <c r="B1767" t="n">
-        <v>38332</v>
+        <v>38824</v>
       </c>
       <c r="C1767" t="inlineStr">
         <is>
-          <t>ST-01</t>
+          <t>NL_KEM</t>
         </is>
       </c>
       <c r="D1767" t="inlineStr">
         <is>
-          <t>Jamské pleso</t>
+          <t>Kempesfles</t>
         </is>
       </c>
       <c r="E1767" t="n">
-        <v>49.13301</v>
+        <v>52.14415</v>
       </c>
       <c r="F1767" t="n">
-        <v>20.01243</v>
-      </c>
-      <c r="G1767" t="n">
-        <v>1447</v>
-      </c>
+        <v>5.79095</v>
+      </c>
+      <c r="G1767" t="inlineStr"/>
     </row>
     <row r="1768">
       <c r="A1768" s="1" t="n">
         <v>1766</v>
       </c>
       <c r="B1768" t="n">
-        <v>38333</v>
+        <v>38825</v>
       </c>
       <c r="C1768" t="inlineStr">
         <is>
-          <t>VS-04</t>
+          <t>NL_MWO</t>
         </is>
       </c>
       <c r="D1768" t="inlineStr">
         <is>
-          <t>Ladové pleso</t>
+          <t>Wolfsputven</t>
         </is>
       </c>
       <c r="E1768" t="n">
-        <v>49.18409</v>
+        <v>51.57549</v>
       </c>
       <c r="F1768" t="n">
-        <v>20.16141</v>
-      </c>
-      <c r="G1768" t="n">
-        <v>2057</v>
-      </c>
+        <v>5.2198</v>
+      </c>
+      <c r="G1768" t="inlineStr"/>
     </row>
     <row r="1769">
       <c r="A1769" s="1" t="n">
         <v>1767</v>
       </c>
       <c r="B1769" t="n">
-        <v>38334</v>
+        <v>38826</v>
       </c>
       <c r="C1769" t="inlineStr">
         <is>
-          <t>VS-15</t>
+          <t>NL_POO</t>
         </is>
       </c>
       <c r="D1769" t="inlineStr">
         <is>
-          <t>Starolesnianske pleso</t>
+          <t>Poort 2</t>
         </is>
       </c>
       <c r="E1769" t="n">
-        <v>49.18013</v>
+        <v>52.82941</v>
       </c>
       <c r="F1769" t="n">
-        <v>20.16669</v>
-      </c>
-      <c r="G1769" t="n">
-        <v>1988</v>
-      </c>
+        <v>6.4319</v>
+      </c>
+      <c r="G1769" t="inlineStr"/>
     </row>
     <row r="1770">
       <c r="A1770" s="1" t="n">
         <v>1768</v>
       </c>
       <c r="B1770" t="n">
-        <v>38335</v>
+        <v>38827</v>
       </c>
       <c r="C1770" t="inlineStr">
         <is>
-          <t>SE_136</t>
+          <t>NL_SCH</t>
         </is>
       </c>
       <c r="D1770" t="inlineStr">
         <is>
-          <t>Abiskojaure</t>
+          <t>Schaapsven</t>
         </is>
       </c>
       <c r="E1770" t="n">
-        <v>68.305835</v>
+        <v>51.55986</v>
       </c>
       <c r="F1770" t="n">
-        <v>18.652494</v>
-      </c>
-      <c r="G1770" t="n">
-        <v>486</v>
-      </c>
+        <v>5.16016</v>
+      </c>
+      <c r="G1770" t="inlineStr"/>
     </row>
     <row r="1771">
       <c r="A1771" s="1" t="n">
         <v>1769</v>
       </c>
       <c r="B1771" t="n">
-        <v>38336</v>
+        <v>38828</v>
       </c>
       <c r="C1771" t="inlineStr">
         <is>
-          <t>SE_96</t>
+          <t>ES08</t>
         </is>
       </c>
       <c r="D1771" t="inlineStr">
         <is>
-          <t>Allgjuttern</t>
+          <t>Río Estena</t>
         </is>
       </c>
       <c r="E1771" t="n">
-        <v>57.947945</v>
+        <v>39.5626</v>
       </c>
       <c r="F1771" t="n">
-        <v>16.096322</v>
+        <v>-4.58582</v>
       </c>
       <c r="G1771" t="n">
-        <v>127</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1772">
@@ -47592,26 +47556,26 @@
         <v>1770</v>
       </c>
       <c r="B1772" t="n">
-        <v>38337</v>
+        <v>38829</v>
       </c>
       <c r="C1772" t="inlineStr">
         <is>
-          <t>SE_111</t>
+          <t>ES09</t>
         </is>
       </c>
       <c r="D1772" t="inlineStr">
         <is>
-          <t>Alsjön</t>
+          <t>Río Manzanares</t>
         </is>
       </c>
       <c r="E1772" t="n">
-        <v>58.315098</v>
+        <v>40.768284</v>
       </c>
       <c r="F1772" t="n">
-        <v>12.502012</v>
+        <v>-3.95139</v>
       </c>
       <c r="G1772" t="n">
-        <v>113</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1773">
@@ -47619,26 +47583,26 @@
         <v>1771</v>
       </c>
       <c r="B1773" t="n">
-        <v>38338</v>
+        <v>38830</v>
       </c>
       <c r="C1773" t="inlineStr">
         <is>
-          <t>SE_1070</t>
+          <t>ES10</t>
         </is>
       </c>
       <c r="D1773" t="inlineStr">
         <is>
-          <t>Alstern</t>
+          <t>Laguna Peñalara</t>
         </is>
       </c>
       <c r="E1773" t="n">
-        <v>59.715053</v>
+        <v>40.8394</v>
       </c>
       <c r="F1773" t="n">
-        <v>13.910674</v>
+        <v>-3.95711</v>
       </c>
       <c r="G1773" t="n">
-        <v>162</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1774">
@@ -47646,26 +47610,26 @@
         <v>1772</v>
       </c>
       <c r="B1774" t="n">
-        <v>38339</v>
+        <v>38831</v>
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t>SE_1074</t>
+          <t>CH18</t>
         </is>
       </c>
       <c r="D1774" t="inlineStr">
         <is>
-          <t>Betarsjön</t>
+          <t>Lago di Sascòla</t>
         </is>
       </c>
       <c r="E1774" t="n">
-        <v>63.737032</v>
+        <v>46.283611111</v>
       </c>
       <c r="F1774" t="n">
-        <v>16.769356</v>
+        <v>8.569722221999999</v>
       </c>
       <c r="G1774" t="n">
-        <v>197</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1775">
@@ -47673,26 +47637,26 @@
         <v>1773</v>
       </c>
       <c r="B1775" t="n">
-        <v>38340</v>
+        <v>38318</v>
       </c>
       <c r="C1775" t="inlineStr">
         <is>
-          <t>SE_1092</t>
+          <t>GA-04</t>
         </is>
       </c>
       <c r="D1775" t="inlineStr">
         <is>
-          <t>Billingen</t>
+          <t>Dlugi Staw Gasienicowy</t>
         </is>
       </c>
       <c r="E1775" t="n">
-        <v>59.52648</v>
+        <v>49.227812</v>
       </c>
       <c r="F1775" t="n">
-        <v>12.786586</v>
+        <v>20.008842</v>
       </c>
       <c r="G1775" t="n">
-        <v>77</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1776">
@@ -47700,26 +47664,26 @@
         <v>1774</v>
       </c>
       <c r="B1776" t="n">
-        <v>38341</v>
+        <v>38319</v>
       </c>
       <c r="C1776" t="inlineStr">
         <is>
-          <t>SE_1099</t>
+          <t>GA-07</t>
         </is>
       </c>
       <c r="D1776" t="inlineStr">
         <is>
-          <t>Bodasjön</t>
+          <t>Zielony Staw Gasienicowy</t>
         </is>
       </c>
       <c r="E1776" t="n">
-        <v>59.25134</v>
+        <v>49.229305</v>
       </c>
       <c r="F1776" t="n">
-        <v>12.213899</v>
+        <v>19.997741</v>
       </c>
       <c r="G1776" t="n">
-        <v>112</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1777">
@@ -47727,26 +47691,26 @@
         <v>1775</v>
       </c>
       <c r="B1777" t="n">
-        <v>38342</v>
+        <v>38320</v>
       </c>
       <c r="C1777" t="inlineStr">
         <is>
-          <t>SE_1093</t>
+          <t>MO-01</t>
         </is>
       </c>
       <c r="D1777" t="inlineStr">
         <is>
-          <t>Botungen</t>
+          <t>Czarny Staw pod Rysami</t>
         </is>
       </c>
       <c r="E1777" t="n">
-        <v>59.344243</v>
+        <v>49.1888</v>
       </c>
       <c r="F1777" t="n">
-        <v>12.725927</v>
+        <v>20.0778</v>
       </c>
       <c r="G1777" t="n">
-        <v>100</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1778">
@@ -47754,26 +47718,26 @@
         <v>1776</v>
       </c>
       <c r="B1778" t="n">
-        <v>38343</v>
+        <v>38321</v>
       </c>
       <c r="C1778" t="inlineStr">
         <is>
-          <t>SE_98</t>
+          <t>MO-02</t>
         </is>
       </c>
       <c r="D1778" t="inlineStr">
         <is>
-          <t>Brunnsjön</t>
+          <t>Morskie oko</t>
         </is>
       </c>
       <c r="E1778" t="n">
-        <v>56.597203</v>
+        <v>49.1978</v>
       </c>
       <c r="F1778" t="n">
-        <v>15.728071</v>
+        <v>20.0722</v>
       </c>
       <c r="G1778" t="n">
-        <v>99</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1779">
@@ -47781,26 +47745,26 @@
         <v>1777</v>
       </c>
       <c r="B1779" t="n">
-        <v>38344</v>
+        <v>38322</v>
       </c>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>SE_101</t>
+          <t>MO-06</t>
         </is>
       </c>
       <c r="D1779" t="inlineStr">
         <is>
-          <t>Brännträsket</t>
+          <t>Wyzni Mnichowy Stawek, Najwiekszy (IX)</t>
         </is>
       </c>
       <c r="E1779" t="n">
-        <v>65.526248</v>
+        <v>49.194171</v>
       </c>
       <c r="F1779" t="n">
-        <v>21.416926</v>
+        <v>20.053662</v>
       </c>
       <c r="G1779" t="n">
-        <v>84</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1780">
@@ -47808,26 +47772,26 @@
         <v>1778</v>
       </c>
       <c r="B1780" t="n">
-        <v>38345</v>
+        <v>38323</v>
       </c>
       <c r="C1780" t="inlineStr">
         <is>
-          <t>SE_88</t>
+          <t>BA-01</t>
         </is>
       </c>
       <c r="D1780" t="inlineStr">
         <is>
-          <t>Bysjön</t>
+          <t>Batizovské pleso</t>
         </is>
       </c>
       <c r="E1780" t="n">
-        <v>59.302379</v>
+        <v>49.15203</v>
       </c>
       <c r="F1780" t="n">
-        <v>12.339913</v>
+        <v>20.12988</v>
       </c>
       <c r="G1780" t="n">
-        <v>126</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1781">
@@ -47835,26 +47799,26 @@
         <v>1779</v>
       </c>
       <c r="B1781" t="n">
-        <v>38346</v>
+        <v>38324</v>
       </c>
       <c r="C1781" t="inlineStr">
         <is>
-          <t>SE_63</t>
+          <t>FU-01</t>
         </is>
       </c>
       <c r="D1781" t="inlineStr">
         <is>
-          <t>Bäen</t>
+          <t>Vyšné Wahlenbergovo pleso</t>
         </is>
       </c>
       <c r="E1781" t="n">
-        <v>56.246005</v>
+        <v>49.16383</v>
       </c>
       <c r="F1781" t="n">
-        <v>14.377527</v>
+        <v>20.02567</v>
       </c>
       <c r="G1781" t="n">
-        <v>90</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1782">
@@ -47862,26 +47826,26 @@
         <v>1780</v>
       </c>
       <c r="B1782" t="n">
-        <v>38347</v>
+        <v>38325</v>
       </c>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>SE_89</t>
+          <t>ME-01</t>
         </is>
       </c>
       <c r="D1782" t="inlineStr">
         <is>
-          <t>Dagarn</t>
+          <t>Velké Hincovo pleso</t>
         </is>
       </c>
       <c r="E1782" t="n">
-        <v>59.896977</v>
+        <v>49.17917</v>
       </c>
       <c r="F1782" t="n">
-        <v>15.68668</v>
+        <v>20.05904</v>
       </c>
       <c r="G1782" t="n">
-        <v>131</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1783">
@@ -47889,26 +47853,26 @@
         <v>1781</v>
       </c>
       <c r="B1783" t="n">
-        <v>38348</v>
+        <v>38326</v>
       </c>
       <c r="C1783" t="inlineStr">
         <is>
-          <t>SE_55</t>
+          <t>ME-02</t>
         </is>
       </c>
       <c r="D1783" t="inlineStr">
         <is>
-          <t>Edasjön</t>
+          <t>Malé Hincovo pleso</t>
         </is>
       </c>
       <c r="E1783" t="n">
-        <v>59.805629</v>
+        <v>49.17398</v>
       </c>
       <c r="F1783" t="n">
-        <v>17.903998</v>
+        <v>20.05742</v>
       </c>
       <c r="G1783" t="n">
-        <v>18</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1784">
@@ -47916,26 +47880,26 @@
         <v>1782</v>
       </c>
       <c r="B1784" t="n">
-        <v>38349</v>
+        <v>38327</v>
       </c>
       <c r="C1784" t="inlineStr">
         <is>
-          <t>SE_131</t>
+          <t>ME-04</t>
         </is>
       </c>
       <c r="D1784" t="inlineStr">
         <is>
-          <t>Fagertärn</t>
+          <t>Vyšné Satanie pliesko</t>
         </is>
       </c>
       <c r="E1784" t="n">
-        <v>58.757759</v>
+        <v>49.17006</v>
       </c>
       <c r="F1784" t="n">
-        <v>14.702844</v>
+        <v>20.06079</v>
       </c>
       <c r="G1784" t="n">
-        <v>164</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1785">
@@ -47943,26 +47907,26 @@
         <v>1783</v>
       </c>
       <c r="B1785" t="n">
-        <v>38350</v>
+        <v>38328</v>
       </c>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>SE_1089</t>
+          <t>NE-01</t>
         </is>
       </c>
       <c r="D1785" t="inlineStr">
         <is>
-          <t>Farstusjön</t>
+          <t>Vyšné Terianske pleso</t>
         </is>
       </c>
       <c r="E1785" t="n">
-        <v>56.535067</v>
+        <v>49.16774</v>
       </c>
       <c r="F1785" t="n">
-        <v>13.993759</v>
+        <v>20.02059</v>
       </c>
       <c r="G1785" t="n">
-        <v>134</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1786">
@@ -47970,26 +47934,26 @@
         <v>1784</v>
       </c>
       <c r="B1786" t="n">
-        <v>38351</v>
+        <v>38329</v>
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t>SE_121</t>
+          <t>NE-03</t>
         </is>
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>Fjärasjö</t>
+          <t>Nižné Terianske pleso</t>
         </is>
       </c>
       <c r="E1786" t="n">
-        <v>57.609084</v>
+        <v>49.16966</v>
       </c>
       <c r="F1786" t="n">
-        <v>15.249297</v>
+        <v>20.01287</v>
       </c>
       <c r="G1786" t="n">
-        <v>233</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1787">
@@ -47997,26 +47961,26 @@
         <v>1785</v>
       </c>
       <c r="B1787" t="n">
-        <v>38352</v>
+        <v>38330</v>
       </c>
       <c r="C1787" t="inlineStr">
         <is>
-          <t>SE_118</t>
+          <t>RO-01</t>
         </is>
       </c>
       <c r="D1787" t="inlineStr">
         <is>
-          <t>Fräcksjön</t>
+          <t>Štvrté Rohácske pleso</t>
         </is>
       </c>
       <c r="E1787" t="n">
-        <v>58.148152</v>
+        <v>49.20589</v>
       </c>
       <c r="F1787" t="n">
-        <v>12.181194</v>
+        <v>19.73576</v>
       </c>
       <c r="G1787" t="n">
-        <v>65</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1788">
@@ -48024,26 +47988,26 @@
         <v>1786</v>
       </c>
       <c r="B1788" t="n">
-        <v>38353</v>
+        <v>38331</v>
       </c>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>SE_1115</t>
+          <t>SL-02</t>
         </is>
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>Fåglasjön</t>
+          <t>Slavkovské pleso</t>
         </is>
       </c>
       <c r="E1788" t="n">
-        <v>56.123474</v>
+        <v>49.1526</v>
       </c>
       <c r="F1788" t="n">
-        <v>13.487906</v>
+        <v>20.18326</v>
       </c>
       <c r="G1788" t="n">
-        <v>105</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1789">
@@ -48051,26 +48015,26 @@
         <v>1787</v>
       </c>
       <c r="B1789" t="n">
-        <v>38354</v>
+        <v>38332</v>
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t>SE_58</t>
+          <t>ST-01</t>
         </is>
       </c>
       <c r="D1789" t="inlineStr">
         <is>
-          <t>Gipsjön</t>
+          <t>Jamské pleso</t>
         </is>
       </c>
       <c r="E1789" t="n">
-        <v>60.645048</v>
+        <v>49.13301</v>
       </c>
       <c r="F1789" t="n">
-        <v>13.626457</v>
+        <v>20.01243</v>
       </c>
       <c r="G1789" t="n">
-        <v>377</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1790">
@@ -48078,26 +48042,26 @@
         <v>1788</v>
       </c>
       <c r="B1790" t="n">
-        <v>38355</v>
+        <v>38333</v>
       </c>
       <c r="C1790" t="inlineStr">
         <is>
-          <t>SE_133</t>
+          <t>VS-04</t>
         </is>
       </c>
       <c r="D1790" t="inlineStr">
         <is>
-          <t>Gosjön</t>
+          <t>Ladové pleso</t>
         </is>
       </c>
       <c r="E1790" t="n">
-        <v>61.086672</v>
+        <v>49.18409</v>
       </c>
       <c r="F1790" t="n">
-        <v>16.949312</v>
+        <v>20.16141</v>
       </c>
       <c r="G1790" t="n">
-        <v>63</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1791">
@@ -48105,26 +48069,26 @@
         <v>1789</v>
       </c>
       <c r="B1791" t="n">
-        <v>38356</v>
+        <v>38334</v>
       </c>
       <c r="C1791" t="inlineStr">
         <is>
-          <t>SE_1119</t>
+          <t>VS-15</t>
         </is>
       </c>
       <c r="D1791" t="inlineStr">
         <is>
-          <t>Gransjön</t>
+          <t>Starolesnianske pleso</t>
         </is>
       </c>
       <c r="E1791" t="n">
-        <v>62.466891</v>
+        <v>49.18013</v>
       </c>
       <c r="F1791" t="n">
-        <v>16.706314</v>
+        <v>20.16669</v>
       </c>
       <c r="G1791" t="n">
-        <v>239</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1792">
@@ -48132,26 +48096,26 @@
         <v>1790</v>
       </c>
       <c r="B1792" t="n">
-        <v>38357</v>
+        <v>38335</v>
       </c>
       <c r="C1792" t="inlineStr">
         <is>
-          <t>SE_110</t>
+          <t>SE_136</t>
         </is>
       </c>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>Grissjön</t>
+          <t>Abiskojaure</t>
         </is>
       </c>
       <c r="E1792" t="n">
-        <v>58.762568</v>
+        <v>68.305835</v>
       </c>
       <c r="F1792" t="n">
-        <v>15.142133</v>
+        <v>18.652494</v>
       </c>
       <c r="G1792" t="n">
-        <v>138</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1793">
@@ -48159,26 +48123,26 @@
         <v>1791</v>
       </c>
       <c r="B1793" t="n">
-        <v>38358</v>
+        <v>38336</v>
       </c>
       <c r="C1793" t="inlineStr">
         <is>
-          <t>SE_1102</t>
+          <t>SE_96</t>
         </is>
       </c>
       <c r="D1793" t="inlineStr">
         <is>
-          <t>Gröningen</t>
+          <t>Allgjuttern</t>
         </is>
       </c>
       <c r="E1793" t="n">
-        <v>59.618262</v>
+        <v>57.947945</v>
       </c>
       <c r="F1793" t="n">
-        <v>15.475073</v>
+        <v>16.096322</v>
       </c>
       <c r="G1793" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1794">
@@ -48186,26 +48150,26 @@
         <v>1792</v>
       </c>
       <c r="B1794" t="n">
-        <v>38359</v>
+        <v>38337</v>
       </c>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>SE_130</t>
+          <t>SE_111</t>
         </is>
       </c>
       <c r="D1794" t="inlineStr">
         <is>
-          <t>Hagasjön</t>
+          <t>Alsjön</t>
         </is>
       </c>
       <c r="E1794" t="n">
-        <v>57.337247</v>
+        <v>58.315098</v>
       </c>
       <c r="F1794" t="n">
-        <v>13.711425</v>
+        <v>12.502012</v>
       </c>
       <c r="G1794" t="n">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1795">
@@ -48213,26 +48177,26 @@
         <v>1793</v>
       </c>
       <c r="B1795" t="n">
-        <v>38360</v>
+        <v>38338</v>
       </c>
       <c r="C1795" t="inlineStr">
         <is>
-          <t>SE_91</t>
+          <t>SE_1070</t>
         </is>
       </c>
       <c r="D1795" t="inlineStr">
         <is>
-          <t>Hinnasjön</t>
+          <t>Alstern</t>
         </is>
       </c>
       <c r="E1795" t="n">
-        <v>56.8781</v>
+        <v>59.715053</v>
       </c>
       <c r="F1795" t="n">
-        <v>14.928577</v>
+        <v>13.910674</v>
       </c>
       <c r="G1795" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1796">
@@ -48240,26 +48204,26 @@
         <v>1794</v>
       </c>
       <c r="B1796" t="n">
-        <v>38361</v>
+        <v>38339</v>
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>SE_113</t>
+          <t>SE_1074</t>
         </is>
       </c>
       <c r="D1796" t="inlineStr">
         <is>
-          <t>Humsjön</t>
+          <t>Betarsjön</t>
         </is>
       </c>
       <c r="E1796" t="n">
-        <v>58.621213</v>
+        <v>63.737032</v>
       </c>
       <c r="F1796" t="n">
-        <v>14.475824</v>
+        <v>16.769356</v>
       </c>
       <c r="G1796" t="n">
-        <v>129</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1797">
@@ -48267,26 +48231,26 @@
         <v>1795</v>
       </c>
       <c r="B1797" t="n">
-        <v>38362</v>
+        <v>38340</v>
       </c>
       <c r="C1797" t="inlineStr">
         <is>
-          <t>SE_57</t>
+          <t>SE_1092</t>
         </is>
       </c>
       <c r="D1797" t="inlineStr">
         <is>
-          <t>Hällsjön</t>
+          <t>Billingen</t>
         </is>
       </c>
       <c r="E1797" t="n">
-        <v>60.162144</v>
+        <v>59.52648</v>
       </c>
       <c r="F1797" t="n">
-        <v>15.733446</v>
+        <v>12.786586</v>
       </c>
       <c r="G1797" t="n">
-        <v>168</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1798">
@@ -48294,26 +48258,26 @@
         <v>1796</v>
       </c>
       <c r="B1798" t="n">
-        <v>38363</v>
+        <v>38341</v>
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t>SE_61</t>
+          <t>SE_1099</t>
         </is>
       </c>
       <c r="D1798" t="inlineStr">
         <is>
-          <t>Hällvattnet</t>
+          <t>Bodasjön</t>
         </is>
       </c>
       <c r="E1798" t="n">
-        <v>63.542743</v>
+        <v>59.25134</v>
       </c>
       <c r="F1798" t="n">
-        <v>17.633054</v>
+        <v>12.213899</v>
       </c>
       <c r="G1798" t="n">
-        <v>218</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1799">
@@ -48321,26 +48285,26 @@
         <v>1797</v>
       </c>
       <c r="B1799" t="n">
-        <v>38364</v>
+        <v>38342</v>
       </c>
       <c r="C1799" t="inlineStr">
         <is>
-          <t>SE_1948</t>
+          <t>SE_1093</t>
         </is>
       </c>
       <c r="D1799" t="inlineStr">
         <is>
-          <t>Härsvatten</t>
+          <t>Botungen</t>
         </is>
       </c>
       <c r="E1799" t="n">
-        <v>58.0202</v>
+        <v>59.344243</v>
       </c>
       <c r="F1799" t="n">
-        <v>12.030389</v>
+        <v>12.725927</v>
       </c>
       <c r="G1799" t="n">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1800">
@@ -48348,26 +48312,26 @@
         <v>1798</v>
       </c>
       <c r="B1800" t="n">
-        <v>38365</v>
+        <v>38343</v>
       </c>
       <c r="C1800" t="inlineStr">
         <is>
-          <t>SE_95</t>
+          <t>SE_98</t>
         </is>
       </c>
       <c r="D1800" t="inlineStr">
         <is>
-          <t>Hökesjön</t>
+          <t>Brunnsjön</t>
         </is>
       </c>
       <c r="E1800" t="n">
-        <v>57.639215</v>
+        <v>56.597203</v>
       </c>
       <c r="F1800" t="n">
-        <v>15.755153</v>
+        <v>15.728071</v>
       </c>
       <c r="G1800" t="n">
-        <v>141</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1801">
@@ -48375,26 +48339,26 @@
         <v>1799</v>
       </c>
       <c r="B1801" t="n">
-        <v>38366</v>
+        <v>38344</v>
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t>SE_123</t>
+          <t>SE_101</t>
         </is>
       </c>
       <c r="D1801" t="inlineStr">
         <is>
-          <t>Jutsajaure</t>
+          <t>Brännträsket</t>
         </is>
       </c>
       <c r="E1801" t="n">
-        <v>67.058965</v>
+        <v>65.526248</v>
       </c>
       <c r="F1801" t="n">
-        <v>19.943647</v>
+        <v>21.416926</v>
       </c>
       <c r="G1801" t="n">
-        <v>423</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1802">
@@ -48402,26 +48366,26 @@
         <v>1800</v>
       </c>
       <c r="B1802" t="n">
-        <v>38367</v>
+        <v>38345</v>
       </c>
       <c r="C1802" t="inlineStr">
         <is>
-          <t>SE_1113</t>
+          <t>SE_88</t>
         </is>
       </c>
       <c r="D1802" t="inlineStr">
         <is>
-          <t>Liasjön</t>
+          <t>Bysjön</t>
         </is>
       </c>
       <c r="E1802" t="n">
-        <v>56.446397</v>
+        <v>59.302379</v>
       </c>
       <c r="F1802" t="n">
-        <v>13.992794</v>
+        <v>12.339913</v>
       </c>
       <c r="G1802" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1803">
@@ -48429,26 +48393,26 @@
         <v>1801</v>
       </c>
       <c r="B1803" t="n">
-        <v>38368</v>
+        <v>38346</v>
       </c>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>SE_1947</t>
+          <t>SE_63</t>
         </is>
       </c>
       <c r="D1803" t="inlineStr">
         <is>
-          <t>Lillesjö</t>
+          <t>Bäen</t>
         </is>
       </c>
       <c r="E1803" t="n">
-        <v>56.206194</v>
+        <v>56.246005</v>
       </c>
       <c r="F1803" t="n">
-        <v>14.539986</v>
+        <v>14.377527</v>
       </c>
       <c r="G1803" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1804">
@@ -48456,26 +48420,26 @@
         <v>1802</v>
       </c>
       <c r="B1804" t="n">
-        <v>38369</v>
+        <v>38347</v>
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>SE_1071</t>
+          <t>SE_89</t>
         </is>
       </c>
       <c r="D1804" t="inlineStr">
         <is>
-          <t>Lill-Jangen</t>
+          <t>Dagarn</t>
         </is>
       </c>
       <c r="E1804" t="n">
-        <v>59.991355</v>
+        <v>59.896977</v>
       </c>
       <c r="F1804" t="n">
-        <v>13.347344</v>
+        <v>15.68668</v>
       </c>
       <c r="G1804" t="n">
-        <v>194</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1805">
@@ -48483,26 +48447,26 @@
         <v>1803</v>
       </c>
       <c r="B1805" t="n">
-        <v>38370</v>
+        <v>38348</v>
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>SE_92</t>
+          <t>SE_55</t>
         </is>
       </c>
       <c r="D1805" t="inlineStr">
         <is>
-          <t>Limmingsjön</t>
+          <t>Edasjön</t>
         </is>
       </c>
       <c r="E1805" t="n">
-        <v>59.58616</v>
+        <v>59.805629</v>
       </c>
       <c r="F1805" t="n">
-        <v>14.520404</v>
+        <v>17.903998</v>
       </c>
       <c r="G1805" t="n">
-        <v>235</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1806">
@@ -48510,26 +48474,26 @@
         <v>1804</v>
       </c>
       <c r="B1806" t="n">
-        <v>38371</v>
+        <v>38349</v>
       </c>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>SE_129</t>
+          <t>SE_131</t>
         </is>
       </c>
       <c r="D1806" t="inlineStr">
         <is>
-          <t>Långsjön</t>
+          <t>Fagertärn</t>
         </is>
       </c>
       <c r="E1806" t="n">
-        <v>60.733618</v>
+        <v>58.757759</v>
       </c>
       <c r="F1806" t="n">
-        <v>16.424785</v>
+        <v>14.702844</v>
       </c>
       <c r="G1806" t="n">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1807">
@@ -48537,26 +48501,26 @@
         <v>1805</v>
       </c>
       <c r="B1807" t="n">
-        <v>38372</v>
+        <v>38350</v>
       </c>
       <c r="C1807" t="inlineStr">
         <is>
-          <t>SE_1088</t>
+          <t>SE_1089</t>
         </is>
       </c>
       <c r="D1807" t="inlineStr">
         <is>
-          <t>Mosjön</t>
+          <t>Farstusjön</t>
         </is>
       </c>
       <c r="E1807" t="n">
-        <v>58.99268</v>
+        <v>56.535067</v>
       </c>
       <c r="F1807" t="n">
-        <v>14.560335</v>
+        <v>13.993759</v>
       </c>
       <c r="G1807" t="n">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1808">
@@ -48564,26 +48528,26 @@
         <v>1806</v>
       </c>
       <c r="B1808" t="n">
-        <v>38373</v>
+        <v>38351</v>
       </c>
       <c r="C1808" t="inlineStr">
         <is>
-          <t>SE_1081</t>
+          <t>SE_121</t>
         </is>
       </c>
       <c r="D1808" t="inlineStr">
         <is>
-          <t>Mossjön</t>
+          <t>Fjärasjö</t>
         </is>
       </c>
       <c r="E1808" t="n">
-        <v>57.539137</v>
+        <v>57.609084</v>
       </c>
       <c r="F1808" t="n">
-        <v>13.945365</v>
+        <v>15.249297</v>
       </c>
       <c r="G1808" t="n">
-        <v>279</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1809">
@@ -48591,26 +48555,26 @@
         <v>1807</v>
       </c>
       <c r="B1809" t="n">
-        <v>38374</v>
+        <v>38352</v>
       </c>
       <c r="C1809" t="inlineStr">
         <is>
-          <t>SE_56</t>
+          <t>SE_118</t>
         </is>
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>Mäsen</t>
+          <t>Fräcksjön</t>
         </is>
       </c>
       <c r="E1809" t="n">
-        <v>60.027726</v>
+        <v>58.148152</v>
       </c>
       <c r="F1809" t="n">
-        <v>15.662726</v>
+        <v>12.181194</v>
       </c>
       <c r="G1809" t="n">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1810">
@@ -48618,26 +48582,26 @@
         <v>1808</v>
       </c>
       <c r="B1810" t="n">
-        <v>38375</v>
+        <v>38353</v>
       </c>
       <c r="C1810" t="inlineStr">
         <is>
-          <t>SE_1097</t>
+          <t>SE_1115</t>
         </is>
       </c>
       <c r="D1810" t="inlineStr">
         <is>
-          <t>Mögesjön</t>
+          <t>Fåglasjön</t>
         </is>
       </c>
       <c r="E1810" t="n">
-        <v>59.580301</v>
+        <v>56.123474</v>
       </c>
       <c r="F1810" t="n">
-        <v>11.84436</v>
+        <v>13.487906</v>
       </c>
       <c r="G1810" t="n">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1811">
@@ -48645,26 +48609,26 @@
         <v>1809</v>
       </c>
       <c r="B1811" t="n">
-        <v>38376</v>
+        <v>38354</v>
       </c>
       <c r="C1811" t="inlineStr">
         <is>
-          <t>SE_1111</t>
+          <t>SE_58</t>
         </is>
       </c>
       <c r="D1811" t="inlineStr">
         <is>
-          <t>Navarn</t>
+          <t>Gipsjön</t>
         </is>
       </c>
       <c r="E1811" t="n">
-        <v>62.594759</v>
+        <v>60.645048</v>
       </c>
       <c r="F1811" t="n">
-        <v>16.705504</v>
+        <v>13.626457</v>
       </c>
       <c r="G1811" t="n">
-        <v>279</v>
+        <v>377</v>
       </c>
     </row>
     <row r="1812">
@@ -48672,26 +48636,26 @@
         <v>1810</v>
       </c>
       <c r="B1812" t="n">
-        <v>38377</v>
+        <v>38355</v>
       </c>
       <c r="C1812" t="inlineStr">
         <is>
-          <t>SE_78</t>
+          <t>SE_133</t>
         </is>
       </c>
       <c r="D1812" t="inlineStr">
         <is>
-          <t>Rammsjön</t>
+          <t>Gosjön</t>
         </is>
       </c>
       <c r="E1812" t="n">
-        <v>56.7669</v>
+        <v>61.086672</v>
       </c>
       <c r="F1812" t="n">
-        <v>13.427609</v>
+        <v>16.949312</v>
       </c>
       <c r="G1812" t="n">
-        <v>160</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1813">
@@ -48699,26 +48663,26 @@
         <v>1811</v>
       </c>
       <c r="B1813" t="n">
-        <v>38378</v>
+        <v>38356</v>
       </c>
       <c r="C1813" t="inlineStr">
         <is>
-          <t>SE_1085</t>
+          <t>SE_1119</t>
         </is>
       </c>
       <c r="D1813" t="inlineStr">
         <is>
-          <t>Rattsjön</t>
+          <t>Gransjön</t>
         </is>
       </c>
       <c r="E1813" t="n">
-        <v>60.357808</v>
+        <v>62.466891</v>
       </c>
       <c r="F1813" t="n">
-        <v>12.905761</v>
+        <v>16.706314</v>
       </c>
       <c r="G1813" t="n">
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1814">
@@ -48726,26 +48690,26 @@
         <v>1812</v>
       </c>
       <c r="B1814" t="n">
-        <v>38379</v>
+        <v>38357</v>
       </c>
       <c r="C1814" t="inlineStr">
         <is>
-          <t>SE_60</t>
+          <t>SE_110</t>
         </is>
       </c>
       <c r="D1814" t="inlineStr">
         <is>
-          <t>Remmarsjön</t>
+          <t>Grissjön</t>
         </is>
       </c>
       <c r="E1814" t="n">
-        <v>63.862036</v>
+        <v>58.762568</v>
       </c>
       <c r="F1814" t="n">
-        <v>18.272636</v>
+        <v>15.142133</v>
       </c>
       <c r="G1814" t="n">
-        <v>234</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1815">
@@ -48753,26 +48717,26 @@
         <v>1813</v>
       </c>
       <c r="B1815" t="n">
-        <v>38380</v>
+        <v>38358</v>
       </c>
       <c r="C1815" t="inlineStr">
         <is>
-          <t>SE_94</t>
+          <t>SE_1102</t>
         </is>
       </c>
       <c r="D1815" t="inlineStr">
         <is>
-          <t>Rotehogstjärnen</t>
+          <t>Gröningen</t>
         </is>
       </c>
       <c r="E1815" t="n">
-        <v>58.815002</v>
+        <v>59.618262</v>
       </c>
       <c r="F1815" t="n">
-        <v>11.612461</v>
+        <v>15.475073</v>
       </c>
       <c r="G1815" t="n">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1816">
@@ -48780,26 +48744,26 @@
         <v>1814</v>
       </c>
       <c r="B1816" t="n">
-        <v>38381</v>
+        <v>38359</v>
       </c>
       <c r="C1816" t="inlineStr">
         <is>
-          <t>SE_1118</t>
+          <t>SE_130</t>
         </is>
       </c>
       <c r="D1816" t="inlineStr">
         <is>
-          <t>S. Bergsjön</t>
+          <t>Hagasjön</t>
         </is>
       </c>
       <c r="E1816" t="n">
-        <v>63.643065</v>
+        <v>57.337247</v>
       </c>
       <c r="F1816" t="n">
-        <v>17.390824</v>
+        <v>13.711425</v>
       </c>
       <c r="G1816" t="n">
-        <v>243</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1817">
@@ -48807,26 +48771,26 @@
         <v>1815</v>
       </c>
       <c r="B1817" t="n">
-        <v>38382</v>
+        <v>38360</v>
       </c>
       <c r="C1817" t="inlineStr">
         <is>
-          <t>SE_1094</t>
+          <t>SE_91</t>
         </is>
       </c>
       <c r="D1817" t="inlineStr">
         <is>
-          <t>Sandsjön</t>
+          <t>Hinnasjön</t>
         </is>
       </c>
       <c r="E1817" t="n">
-        <v>59.357014</v>
+        <v>56.8781</v>
       </c>
       <c r="F1817" t="n">
-        <v>12.862696</v>
+        <v>14.928577</v>
       </c>
       <c r="G1817" t="n">
-        <v>87</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1818">
@@ -48834,26 +48798,26 @@
         <v>1816</v>
       </c>
       <c r="B1818" t="n">
-        <v>38383</v>
+        <v>38361</v>
       </c>
       <c r="C1818" t="inlineStr">
         <is>
-          <t>SE_62</t>
+          <t>SE_113</t>
         </is>
       </c>
       <c r="D1818" t="inlineStr">
         <is>
-          <t>Siggeforasjön</t>
+          <t>Humsjön</t>
         </is>
       </c>
       <c r="E1818" t="n">
-        <v>59.977884</v>
+        <v>58.621213</v>
       </c>
       <c r="F1818" t="n">
-        <v>17.158944</v>
+        <v>14.475824</v>
       </c>
       <c r="G1818" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="1819">
@@ -48861,26 +48825,26 @@
         <v>1817</v>
       </c>
       <c r="B1819" t="n">
-        <v>38384</v>
+        <v>38362</v>
       </c>
       <c r="C1819" t="inlineStr">
         <is>
-          <t>SE_1075</t>
+          <t>SE_57</t>
         </is>
       </c>
       <c r="D1819" t="inlineStr">
         <is>
-          <t>Skäravattnet</t>
+          <t>Hällsjön</t>
         </is>
       </c>
       <c r="E1819" t="n">
-        <v>56.323407</v>
+        <v>60.162144</v>
       </c>
       <c r="F1819" t="n">
-        <v>14.375444</v>
+        <v>15.733446</v>
       </c>
       <c r="G1819" t="n">
-        <v>88</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1820">
@@ -48888,26 +48852,26 @@
         <v>1818</v>
       </c>
       <c r="B1820" t="n">
-        <v>38385</v>
+        <v>38363</v>
       </c>
       <c r="C1820" t="inlineStr">
         <is>
-          <t>SE_109</t>
+          <t>SE_61</t>
         </is>
       </c>
       <c r="D1820" t="inlineStr">
         <is>
-          <t>Skärgölen</t>
+          <t>Hällvattnet</t>
         </is>
       </c>
       <c r="E1820" t="n">
-        <v>58.76312</v>
+        <v>63.542743</v>
       </c>
       <c r="F1820" t="n">
-        <v>16.233897</v>
+        <v>17.633054</v>
       </c>
       <c r="G1820" t="n">
-        <v>72</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1821">
@@ -48915,23 +48879,23 @@
         <v>1819</v>
       </c>
       <c r="B1821" t="n">
-        <v>38386</v>
+        <v>38364</v>
       </c>
       <c r="C1821" t="inlineStr">
         <is>
-          <t>SE_1098</t>
+          <t>SE_1948</t>
         </is>
       </c>
       <c r="D1821" t="inlineStr">
         <is>
-          <t>Skårdalsvattnet</t>
+          <t>Härsvatten</t>
         </is>
       </c>
       <c r="E1821" t="n">
-        <v>59.335295</v>
+        <v>58.0202</v>
       </c>
       <c r="F1821" t="n">
-        <v>11.939088</v>
+        <v>12.030389</v>
       </c>
       <c r="G1821" t="n">
         <v>128</v>
@@ -48942,26 +48906,26 @@
         <v>1820</v>
       </c>
       <c r="B1822" t="n">
-        <v>38387</v>
+        <v>38365</v>
       </c>
       <c r="C1822" t="inlineStr">
         <is>
-          <t>SE_54</t>
+          <t>SE_95</t>
         </is>
       </c>
       <c r="D1822" t="inlineStr">
         <is>
-          <t>Spjutsjön</t>
+          <t>Hökesjön</t>
         </is>
       </c>
       <c r="E1822" t="n">
-        <v>60.638793</v>
+        <v>57.639215</v>
       </c>
       <c r="F1822" t="n">
-        <v>15.445276</v>
+        <v>15.755153</v>
       </c>
       <c r="G1822" t="n">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1823">
@@ -48969,26 +48933,26 @@
         <v>1821</v>
       </c>
       <c r="B1823" t="n">
-        <v>38388</v>
+        <v>38366</v>
       </c>
       <c r="C1823" t="inlineStr">
         <is>
-          <t>SE_73</t>
+          <t>SE_123</t>
         </is>
       </c>
       <c r="D1823" t="inlineStr">
         <is>
-          <t>St Skärsjön</t>
+          <t>Jutsajaure</t>
         </is>
       </c>
       <c r="E1823" t="n">
-        <v>56.671505</v>
+        <v>67.058965</v>
       </c>
       <c r="F1823" t="n">
-        <v>13.065326</v>
+        <v>19.943647</v>
       </c>
       <c r="G1823" t="n">
-        <v>57</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1824">
@@ -48996,26 +48960,26 @@
         <v>1822</v>
       </c>
       <c r="B1824" t="n">
-        <v>38389</v>
+        <v>38367</v>
       </c>
       <c r="C1824" t="inlineStr">
         <is>
-          <t>SE_1104</t>
+          <t>SE_1113</t>
         </is>
       </c>
       <c r="D1824" t="inlineStr">
         <is>
-          <t>St. Gloppsjön</t>
+          <t>Liasjön</t>
         </is>
       </c>
       <c r="E1824" t="n">
-        <v>59.811943</v>
+        <v>56.446397</v>
       </c>
       <c r="F1824" t="n">
-        <v>14.626482</v>
+        <v>13.992794</v>
       </c>
       <c r="G1824" t="n">
-        <v>199</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1825">
@@ -49023,26 +48987,26 @@
         <v>1823</v>
       </c>
       <c r="B1825" t="n">
-        <v>38390</v>
+        <v>38368</v>
       </c>
       <c r="C1825" t="inlineStr">
         <is>
-          <t>SE_102</t>
+          <t>SE_1947</t>
         </is>
       </c>
       <c r="D1825" t="inlineStr">
         <is>
-          <t>St. Lummersjön</t>
+          <t>Lillesjö</t>
         </is>
       </c>
       <c r="E1825" t="n">
-        <v>58.11417</v>
+        <v>56.206194</v>
       </c>
       <c r="F1825" t="n">
-        <v>14.10621</v>
+        <v>14.539986</v>
       </c>
       <c r="G1825" t="n">
-        <v>240</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1826">
@@ -49050,26 +49014,26 @@
         <v>1824</v>
       </c>
       <c r="B1826" t="n">
-        <v>38391</v>
+        <v>38369</v>
       </c>
       <c r="C1826" t="inlineStr">
         <is>
-          <t>SE_132</t>
+          <t>SE_1071</t>
         </is>
       </c>
       <c r="D1826" t="inlineStr">
         <is>
-          <t>Stensjön</t>
+          <t>Lill-Jangen</t>
         </is>
       </c>
       <c r="E1826" t="n">
-        <v>61.642759</v>
+        <v>59.991355</v>
       </c>
       <c r="F1826" t="n">
-        <v>16.575307</v>
+        <v>13.347344</v>
       </c>
       <c r="G1826" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1827">
@@ -49077,26 +49041,26 @@
         <v>1825</v>
       </c>
       <c r="B1827" t="n">
-        <v>38392</v>
+        <v>38370</v>
       </c>
       <c r="C1827" t="inlineStr">
         <is>
-          <t>SE_82</t>
+          <t>SE_92</t>
         </is>
       </c>
       <c r="D1827" t="inlineStr">
         <is>
-          <t>Stora Envättern</t>
+          <t>Limmingsjön</t>
         </is>
       </c>
       <c r="E1827" t="n">
-        <v>59.114947</v>
+        <v>59.58616</v>
       </c>
       <c r="F1827" t="n">
-        <v>17.353497</v>
+        <v>14.520404</v>
       </c>
       <c r="G1827" t="n">
-        <v>63</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1828">
@@ -49104,26 +49068,26 @@
         <v>1826</v>
       </c>
       <c r="B1828" t="n">
-        <v>38393</v>
+        <v>38371</v>
       </c>
       <c r="C1828" t="inlineStr">
         <is>
-          <t>SE_85</t>
+          <t>SE_129</t>
         </is>
       </c>
       <c r="D1828" t="inlineStr">
         <is>
-          <t>Stora Skärsjön</t>
+          <t>Långsjön</t>
         </is>
       </c>
       <c r="E1828" t="n">
-        <v>57.155893</v>
+        <v>60.733618</v>
       </c>
       <c r="F1828" t="n">
-        <v>14.516806</v>
+        <v>16.424785</v>
       </c>
       <c r="G1828" t="n">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1829">
@@ -49131,26 +49095,26 @@
         <v>1827</v>
       </c>
       <c r="B1829" t="n">
-        <v>38394</v>
+        <v>38372</v>
       </c>
       <c r="C1829" t="inlineStr">
         <is>
-          <t>SE_86</t>
+          <t>SE_1088</t>
         </is>
       </c>
       <c r="D1829" t="inlineStr">
         <is>
-          <t>Storasjö</t>
+          <t>Mosjön</t>
         </is>
       </c>
       <c r="E1829" t="n">
-        <v>56.947836</v>
+        <v>58.99268</v>
       </c>
       <c r="F1829" t="n">
-        <v>15.271186</v>
+        <v>14.560335</v>
       </c>
       <c r="G1829" t="n">
-        <v>252</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1830">
@@ -49158,26 +49122,26 @@
         <v>1828</v>
       </c>
       <c r="B1830" t="n">
-        <v>38395</v>
+        <v>38373</v>
       </c>
       <c r="C1830" t="inlineStr">
         <is>
-          <t>SE_1072</t>
+          <t>SE_1081</t>
         </is>
       </c>
       <c r="D1830" t="inlineStr">
         <is>
-          <t>Stor-En</t>
+          <t>Mossjön</t>
         </is>
       </c>
       <c r="E1830" t="n">
-        <v>59.913009</v>
+        <v>57.539137</v>
       </c>
       <c r="F1830" t="n">
-        <v>13.427895</v>
+        <v>13.945365</v>
       </c>
       <c r="G1830" t="n">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1831">
@@ -49185,26 +49149,26 @@
         <v>1829</v>
       </c>
       <c r="B1831" t="n">
-        <v>38396</v>
+        <v>38374</v>
       </c>
       <c r="C1831" t="inlineStr">
         <is>
-          <t>SE_1109</t>
+          <t>SE_56</t>
         </is>
       </c>
       <c r="D1831" t="inlineStr">
         <is>
-          <t>Storsjön</t>
+          <t>Mäsen</t>
         </is>
       </c>
       <c r="E1831" t="n">
-        <v>62.540583</v>
+        <v>60.027726</v>
       </c>
       <c r="F1831" t="n">
-        <v>17.693794</v>
+        <v>15.662726</v>
       </c>
       <c r="G1831" t="n">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1832">
@@ -49212,26 +49176,26 @@
         <v>1830</v>
       </c>
       <c r="B1832" t="n">
-        <v>38397</v>
+        <v>38375</v>
       </c>
       <c r="C1832" t="inlineStr">
         <is>
-          <t>SE_137</t>
+          <t>SE_1097</t>
         </is>
       </c>
       <c r="D1832" t="inlineStr">
         <is>
-          <t>Stor-Tjulträsket</t>
+          <t>Mögesjön</t>
         </is>
       </c>
       <c r="E1832" t="n">
-        <v>65.96191399999999</v>
+        <v>59.580301</v>
       </c>
       <c r="F1832" t="n">
-        <v>16.067884</v>
+        <v>11.84436</v>
       </c>
       <c r="G1832" t="n">
-        <v>543</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1833">
@@ -49239,26 +49203,26 @@
         <v>1831</v>
       </c>
       <c r="B1833" t="n">
-        <v>38398</v>
+        <v>38376</v>
       </c>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>SE_69</t>
+          <t>SE_1111</t>
         </is>
       </c>
       <c r="D1833" t="inlineStr">
         <is>
-          <t>Svinarydsjön</t>
+          <t>Navarn</t>
         </is>
       </c>
       <c r="E1833" t="n">
-        <v>56.177465</v>
+        <v>62.594759</v>
       </c>
       <c r="F1833" t="n">
-        <v>14.937212</v>
+        <v>16.705504</v>
       </c>
       <c r="G1833" t="n">
-        <v>28</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1834">
@@ -49266,26 +49230,26 @@
         <v>1832</v>
       </c>
       <c r="B1834" t="n">
-        <v>38399</v>
+        <v>38377</v>
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t>SE_68</t>
+          <t>SE_78</t>
         </is>
       </c>
       <c r="D1834" t="inlineStr">
         <is>
-          <t>Sännen</t>
+          <t>Rammsjön</t>
         </is>
       </c>
       <c r="E1834" t="n">
-        <v>56.32502</v>
+        <v>56.7669</v>
       </c>
       <c r="F1834" t="n">
-        <v>15.358164</v>
+        <v>13.427609</v>
       </c>
       <c r="G1834" t="n">
-        <v>63</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1835">
@@ -49293,26 +49257,26 @@
         <v>1833</v>
       </c>
       <c r="B1835" t="n">
-        <v>38400</v>
+        <v>38378</v>
       </c>
       <c r="C1835" t="inlineStr">
         <is>
-          <t>SE_99</t>
+          <t>SE_1085</t>
         </is>
       </c>
       <c r="D1835" t="inlineStr">
         <is>
-          <t>Tomeshultagölen</t>
+          <t>Rattsjön</t>
         </is>
       </c>
       <c r="E1835" t="n">
-        <v>56.738747</v>
+        <v>60.357808</v>
       </c>
       <c r="F1835" t="n">
-        <v>15.406848</v>
+        <v>12.905761</v>
       </c>
       <c r="G1835" t="n">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1836">
@@ -49320,26 +49284,26 @@
         <v>1834</v>
       </c>
       <c r="B1836" t="n">
-        <v>38401</v>
+        <v>38379</v>
       </c>
       <c r="C1836" t="inlineStr">
         <is>
-          <t>SE_1086</t>
+          <t>SE_60</t>
         </is>
       </c>
       <c r="D1836" t="inlineStr">
         <is>
-          <t>Tvällen</t>
+          <t>Remmarsjön</t>
         </is>
       </c>
       <c r="E1836" t="n">
-        <v>60.022696</v>
+        <v>63.862036</v>
       </c>
       <c r="F1836" t="n">
-        <v>12.627787</v>
+        <v>18.272636</v>
       </c>
       <c r="G1836" t="n">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1837">
@@ -49347,26 +49311,26 @@
         <v>1835</v>
       </c>
       <c r="B1837" t="n">
-        <v>38402</v>
+        <v>38380</v>
       </c>
       <c r="C1837" t="inlineStr">
         <is>
-          <t>SE_126</t>
+          <t>SE_94</t>
         </is>
       </c>
       <c r="D1837" t="inlineStr">
         <is>
-          <t>Tväringen</t>
+          <t>Rotehogstjärnen</t>
         </is>
       </c>
       <c r="E1837" t="n">
-        <v>62.24353</v>
+        <v>58.815002</v>
       </c>
       <c r="F1837" t="n">
-        <v>15.673274</v>
+        <v>11.612461</v>
       </c>
       <c r="G1837" t="n">
-        <v>308</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1838">
@@ -49374,26 +49338,26 @@
         <v>1836</v>
       </c>
       <c r="B1838" t="n">
-        <v>38403</v>
+        <v>38381</v>
       </c>
       <c r="C1838" t="inlineStr">
         <is>
-          <t>SE_120</t>
+          <t>SE_1118</t>
         </is>
       </c>
       <c r="D1838" t="inlineStr">
         <is>
-          <t>Tängersjö</t>
+          <t>S. Bergsjön</t>
         </is>
       </c>
       <c r="E1838" t="n">
-        <v>57.466084</v>
+        <v>63.643065</v>
       </c>
       <c r="F1838" t="n">
-        <v>16.032841</v>
+        <v>17.390824</v>
       </c>
       <c r="G1838" t="n">
-        <v>120</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1839">
@@ -49401,26 +49365,26 @@
         <v>1837</v>
       </c>
       <c r="B1839" t="n">
-        <v>38404</v>
+        <v>38382</v>
       </c>
       <c r="C1839" t="inlineStr">
         <is>
-          <t>SE_87</t>
+          <t>SE_1094</t>
         </is>
       </c>
       <c r="D1839" t="inlineStr">
         <is>
-          <t>Ulvsjön</t>
+          <t>Sandsjön</t>
         </is>
       </c>
       <c r="E1839" t="n">
-        <v>59.609761</v>
+        <v>59.357014</v>
       </c>
       <c r="F1839" t="n">
-        <v>12.293747</v>
+        <v>12.862696</v>
       </c>
       <c r="G1839" t="n">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1840">
@@ -49428,26 +49392,26 @@
         <v>1838</v>
       </c>
       <c r="B1840" t="n">
-        <v>38405</v>
+        <v>38383</v>
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t>SE_134</t>
+          <t>SE_62</t>
         </is>
       </c>
       <c r="D1840" t="inlineStr">
         <is>
-          <t>V. Rännöbodsjön</t>
+          <t>Siggeforasjön</t>
         </is>
       </c>
       <c r="E1840" t="n">
-        <v>62.330102</v>
+        <v>59.977884</v>
       </c>
       <c r="F1840" t="n">
-        <v>16.987209</v>
+        <v>17.158944</v>
       </c>
       <c r="G1840" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1841">
@@ -49455,26 +49419,26 @@
         <v>1839</v>
       </c>
       <c r="B1841" t="n">
-        <v>38406</v>
+        <v>38384</v>
       </c>
       <c r="C1841" t="inlineStr">
         <is>
-          <t>SE_65</t>
+          <t>SE_1075</t>
         </is>
       </c>
       <c r="D1841" t="inlineStr">
         <is>
-          <t>Valasjön</t>
+          <t>Skäravattnet</t>
         </is>
       </c>
       <c r="E1841" t="n">
-        <v>63.002451</v>
+        <v>56.323407</v>
       </c>
       <c r="F1841" t="n">
-        <v>17.515287</v>
+        <v>14.375444</v>
       </c>
       <c r="G1841" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1842">
@@ -49482,26 +49446,26 @@
         <v>1840</v>
       </c>
       <c r="B1842" t="n">
-        <v>38407</v>
+        <v>38385</v>
       </c>
       <c r="C1842" t="inlineStr">
         <is>
-          <t>SE_1096</t>
+          <t>SE_109</t>
         </is>
       </c>
       <c r="D1842" t="inlineStr">
         <is>
-          <t>Vrången</t>
+          <t>Skärgölen</t>
         </is>
       </c>
       <c r="E1842" t="n">
-        <v>57.228971</v>
+        <v>58.76312</v>
       </c>
       <c r="F1842" t="n">
-        <v>15.168946</v>
+        <v>16.233897</v>
       </c>
       <c r="G1842" t="n">
-        <v>281</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1843">
@@ -49509,26 +49473,26 @@
         <v>1841</v>
       </c>
       <c r="B1843" t="n">
-        <v>38408</v>
+        <v>38386</v>
       </c>
       <c r="C1843" t="inlineStr">
         <is>
-          <t>SE_1091</t>
+          <t>SE_1098</t>
         </is>
       </c>
       <c r="D1843" t="inlineStr">
         <is>
-          <t>Vågsjön</t>
+          <t>Skårdalsvattnet</t>
         </is>
       </c>
       <c r="E1843" t="n">
-        <v>59.790109</v>
+        <v>59.335295</v>
       </c>
       <c r="F1843" t="n">
-        <v>13.547115</v>
+        <v>11.939088</v>
       </c>
       <c r="G1843" t="n">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1844">
@@ -49536,26 +49500,26 @@
         <v>1842</v>
       </c>
       <c r="B1844" t="n">
-        <v>38409</v>
+        <v>38387</v>
       </c>
       <c r="C1844" t="inlineStr">
         <is>
-          <t>SE_75</t>
+          <t>SE_54</t>
         </is>
       </c>
       <c r="D1844" t="inlineStr">
         <is>
-          <t>Älgarydssjön</t>
+          <t>Spjutsjön</t>
         </is>
       </c>
       <c r="E1844" t="n">
-        <v>57.175693</v>
+        <v>60.638793</v>
       </c>
       <c r="F1844" t="n">
-        <v>14.272717</v>
+        <v>15.445276</v>
       </c>
       <c r="G1844" t="n">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1845">
@@ -49563,26 +49527,26 @@
         <v>1843</v>
       </c>
       <c r="B1845" t="n">
-        <v>38410</v>
+        <v>38388</v>
       </c>
       <c r="C1845" t="inlineStr">
         <is>
-          <t>SE_1087</t>
+          <t>SE_73</t>
         </is>
       </c>
       <c r="D1845" t="inlineStr">
         <is>
-          <t>Ämten</t>
+          <t>St Skärsjön</t>
         </is>
       </c>
       <c r="E1845" t="n">
-        <v>59.948681</v>
+        <v>56.671505</v>
       </c>
       <c r="F1845" t="n">
-        <v>12.598356</v>
+        <v>13.065326</v>
       </c>
       <c r="G1845" t="n">
-        <v>276</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1846">
@@ -49590,26 +49554,26 @@
         <v>1844</v>
       </c>
       <c r="B1846" t="n">
-        <v>38411</v>
+        <v>38389</v>
       </c>
       <c r="C1846" t="inlineStr">
         <is>
-          <t>SE_105</t>
+          <t>SE_1104</t>
         </is>
       </c>
       <c r="D1846" t="inlineStr">
         <is>
-          <t>Öjsjön</t>
+          <t>St. Gloppsjön</t>
         </is>
       </c>
       <c r="E1846" t="n">
-        <v>58.171908</v>
+        <v>59.811943</v>
       </c>
       <c r="F1846" t="n">
-        <v>16.211824</v>
+        <v>14.626482</v>
       </c>
       <c r="G1846" t="n">
-        <v>101</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1847">
@@ -49617,26 +49581,26 @@
         <v>1845</v>
       </c>
       <c r="B1847" t="n">
-        <v>38412</v>
+        <v>38390</v>
       </c>
       <c r="C1847" t="inlineStr">
         <is>
-          <t>SE_1103</t>
+          <t>SE_102</t>
         </is>
       </c>
       <c r="D1847" t="inlineStr">
         <is>
-          <t>Ölsjön</t>
+          <t>St. Lummersjön</t>
         </is>
       </c>
       <c r="E1847" t="n">
-        <v>59.64119</v>
+        <v>58.11417</v>
       </c>
       <c r="F1847" t="n">
-        <v>15.133184</v>
+        <v>14.10621</v>
       </c>
       <c r="G1847" t="n">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1848">
@@ -49644,26 +49608,26 @@
         <v>1846</v>
       </c>
       <c r="B1848" t="n">
-        <v>38413</v>
+        <v>38391</v>
       </c>
       <c r="C1848" t="inlineStr">
         <is>
-          <t>SE_70</t>
+          <t>SE_132</t>
         </is>
       </c>
       <c r="D1848" t="inlineStr">
         <is>
-          <t>Örsjön</t>
+          <t>Stensjön</t>
         </is>
       </c>
       <c r="E1848" t="n">
-        <v>56.28636</v>
+        <v>61.642759</v>
       </c>
       <c r="F1848" t="n">
-        <v>14.685102</v>
+        <v>16.575307</v>
       </c>
       <c r="G1848" t="n">
-        <v>88</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1849">
@@ -49671,26 +49635,26 @@
         <v>1847</v>
       </c>
       <c r="B1849" t="n">
-        <v>38414</v>
+        <v>38392</v>
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t>SE_1946</t>
+          <t>SE_82</t>
         </is>
       </c>
       <c r="D1849" t="inlineStr">
         <is>
-          <t>Örvattnet</t>
+          <t>Stora Envättern</t>
         </is>
       </c>
       <c r="E1849" t="n">
-        <v>59.72567</v>
+        <v>59.114947</v>
       </c>
       <c r="F1849" t="n">
-        <v>12.757958</v>
+        <v>17.353497</v>
       </c>
       <c r="G1849" t="n">
-        <v>277</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1850">
@@ -49698,26 +49662,26 @@
         <v>1848</v>
       </c>
       <c r="B1850" t="n">
-        <v>38415</v>
+        <v>38393</v>
       </c>
       <c r="C1850" t="inlineStr">
         <is>
-          <t>SE_59</t>
+          <t>SE_85</t>
         </is>
       </c>
       <c r="D1850" t="inlineStr">
         <is>
-          <t>Översjön</t>
+          <t>Stora Skärsjön</t>
         </is>
       </c>
       <c r="E1850" t="n">
-        <v>59.893039</v>
+        <v>57.155893</v>
       </c>
       <c r="F1850" t="n">
-        <v>13.338181</v>
+        <v>14.516806</v>
       </c>
       <c r="G1850" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1851">
@@ -49725,26 +49689,26 @@
         <v>1849</v>
       </c>
       <c r="B1851" t="n">
-        <v>38416</v>
+        <v>38394</v>
       </c>
       <c r="C1851" t="inlineStr">
         <is>
-          <t>SE_80</t>
+          <t>SE_86</t>
         </is>
       </c>
       <c r="D1851" t="inlineStr">
         <is>
-          <t>Överudssjön</t>
+          <t>Storasjö</t>
         </is>
       </c>
       <c r="E1851" t="n">
-        <v>59.409459</v>
+        <v>56.947836</v>
       </c>
       <c r="F1851" t="n">
-        <v>12.98413</v>
+        <v>15.271186</v>
       </c>
       <c r="G1851" t="n">
-        <v>58</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1852">
@@ -49752,26 +49716,26 @@
         <v>1850</v>
       </c>
       <c r="B1852" t="n">
-        <v>38417</v>
+        <v>38395</v>
       </c>
       <c r="C1852" t="inlineStr">
         <is>
-          <t>SE_90</t>
+          <t>SE_1072</t>
         </is>
       </c>
       <c r="D1852" t="inlineStr">
         <is>
-          <t>Övre Skärsjön</t>
+          <t>Stor-En</t>
         </is>
       </c>
       <c r="E1852" t="n">
-        <v>59.837085</v>
+        <v>59.913009</v>
       </c>
       <c r="F1852" t="n">
-        <v>15.5503</v>
+        <v>13.427895</v>
       </c>
       <c r="G1852" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1853">
@@ -49779,26 +49743,26 @@
         <v>1851</v>
       </c>
       <c r="B1853" t="n">
-        <v>38418</v>
+        <v>38396</v>
       </c>
       <c r="C1853" t="inlineStr">
         <is>
-          <t>UK_10</t>
+          <t>SE_1109</t>
         </is>
       </c>
       <c r="D1853" t="inlineStr">
         <is>
-          <t>Scoat Tarn</t>
+          <t>Storsjön</t>
         </is>
       </c>
       <c r="E1853" t="n">
-        <v>54.475667</v>
+        <v>62.540583</v>
       </c>
       <c r="F1853" t="n">
-        <v>-3.292167</v>
+        <v>17.693794</v>
       </c>
       <c r="G1853" t="n">
-        <v>602</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1854">
@@ -49806,26 +49770,26 @@
         <v>1852</v>
       </c>
       <c r="B1854" t="n">
-        <v>38419</v>
+        <v>38397</v>
       </c>
       <c r="C1854" t="inlineStr">
         <is>
-          <t>UK_11</t>
+          <t>SE_137</t>
         </is>
       </c>
       <c r="D1854" t="inlineStr">
         <is>
-          <t>Burnmoor Tarn</t>
+          <t>Stor-Tjulträsket</t>
         </is>
       </c>
       <c r="E1854" t="n">
-        <v>54.48402</v>
+        <v>65.96191399999999</v>
       </c>
       <c r="F1854" t="n">
-        <v>-3.091238</v>
+        <v>16.067884</v>
       </c>
       <c r="G1854" t="n">
-        <v>252</v>
+        <v>543</v>
       </c>
     </row>
     <row r="1855">
@@ -49833,26 +49797,26 @@
         <v>1853</v>
       </c>
       <c r="B1855" t="n">
-        <v>38420</v>
+        <v>38398</v>
       </c>
       <c r="C1855" t="inlineStr">
         <is>
-          <t>UK_12</t>
+          <t>SE_69</t>
         </is>
       </c>
       <c r="D1855" t="inlineStr">
         <is>
-          <t>River Etherow</t>
+          <t>Svinarydsjön</t>
         </is>
       </c>
       <c r="E1855" t="n">
-        <v>53.493</v>
+        <v>56.177465</v>
       </c>
       <c r="F1855" t="n">
-        <v>-1.827</v>
+        <v>14.937212</v>
       </c>
       <c r="G1855" t="n">
-        <v>280</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1856">
@@ -49860,26 +49824,26 @@
         <v>1854</v>
       </c>
       <c r="B1856" t="n">
-        <v>38421</v>
+        <v>38399</v>
       </c>
       <c r="C1856" t="inlineStr">
         <is>
-          <t>UK_13</t>
+          <t>SE_68</t>
         </is>
       </c>
       <c r="D1856" t="inlineStr">
         <is>
-          <t>Old Lodge</t>
+          <t>Sännen</t>
         </is>
       </c>
       <c r="E1856" t="n">
-        <v>51.045</v>
+        <v>56.32502</v>
       </c>
       <c r="F1856" t="n">
-        <v>0.076</v>
+        <v>15.358164</v>
       </c>
       <c r="G1856" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1857">
@@ -49887,26 +49851,26 @@
         <v>1855</v>
       </c>
       <c r="B1857" t="n">
-        <v>38422</v>
+        <v>38400</v>
       </c>
       <c r="C1857" t="inlineStr">
         <is>
-          <t>UK_15</t>
+          <t>SE_99</t>
         </is>
       </c>
       <c r="D1857" t="inlineStr">
         <is>
-          <t>Llyn Llagi</t>
+          <t>Tomeshultagölen</t>
         </is>
       </c>
       <c r="E1857" t="n">
-        <v>53.008833</v>
+        <v>56.738747</v>
       </c>
       <c r="F1857" t="n">
-        <v>-4.0085</v>
+        <v>15.406848</v>
       </c>
       <c r="G1857" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1858">
@@ -49914,26 +49878,26 @@
         <v>1856</v>
       </c>
       <c r="B1858" t="n">
-        <v>38423</v>
+        <v>38401</v>
       </c>
       <c r="C1858" t="inlineStr">
         <is>
-          <t>UK_16</t>
+          <t>SE_1086</t>
         </is>
       </c>
       <c r="D1858" t="inlineStr">
         <is>
-          <t>Llyn Cwm Mynach</t>
+          <t>Tvällen</t>
         </is>
       </c>
       <c r="E1858" t="n">
-        <v>52.795537</v>
+        <v>60.022696</v>
       </c>
       <c r="F1858" t="n">
-        <v>-3.962134</v>
+        <v>12.627787</v>
       </c>
       <c r="G1858" t="n">
-        <v>285</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1859">
@@ -49941,26 +49905,26 @@
         <v>1857</v>
       </c>
       <c r="B1859" t="n">
-        <v>38424</v>
+        <v>38402</v>
       </c>
       <c r="C1859" t="inlineStr">
         <is>
-          <t>UK_17</t>
+          <t>SE_126</t>
         </is>
       </c>
       <c r="D1859" t="inlineStr">
         <is>
-          <t>Afon Hafren</t>
+          <t>Tväringen</t>
         </is>
       </c>
       <c r="E1859" t="n">
-        <v>52.457</v>
+        <v>62.24353</v>
       </c>
       <c r="F1859" t="n">
-        <v>-3.48</v>
+        <v>15.673274</v>
       </c>
       <c r="G1859" t="n">
-        <v>355</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1860">
@@ -49968,26 +49932,26 @@
         <v>1858</v>
       </c>
       <c r="B1860" t="n">
-        <v>38425</v>
+        <v>38403</v>
       </c>
       <c r="C1860" t="inlineStr">
         <is>
-          <t>UK_19</t>
+          <t>SE_120</t>
         </is>
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>Beaghs Burn</t>
+          <t>Tängersjö</t>
         </is>
       </c>
       <c r="E1860" t="n">
-        <v>55.101</v>
+        <v>57.466084</v>
       </c>
       <c r="F1860" t="n">
-        <v>-6.162</v>
+        <v>16.032841</v>
       </c>
       <c r="G1860" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1861">
@@ -49995,26 +49959,26 @@
         <v>1859</v>
       </c>
       <c r="B1861" t="n">
-        <v>38426</v>
+        <v>38404</v>
       </c>
       <c r="C1861" t="inlineStr">
         <is>
-          <t>UK_02</t>
+          <t>SE_87</t>
         </is>
       </c>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>Allt a'Mharcaidh</t>
+          <t>Ulvsjön</t>
         </is>
       </c>
       <c r="E1861" t="n">
-        <v>57.118</v>
+        <v>59.609761</v>
       </c>
       <c r="F1861" t="n">
-        <v>-3.85</v>
+        <v>12.293747</v>
       </c>
       <c r="G1861" t="n">
-        <v>325</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1862">
@@ -50022,26 +49986,26 @@
         <v>1860</v>
       </c>
       <c r="B1862" t="n">
-        <v>38427</v>
+        <v>38405</v>
       </c>
       <c r="C1862" t="inlineStr">
         <is>
-          <t>UK_20</t>
+          <t>SE_134</t>
         </is>
       </c>
       <c r="D1862" t="inlineStr">
         <is>
-          <t>Bencrom River</t>
+          <t>V. Rännöbodsjön</t>
         </is>
       </c>
       <c r="E1862" t="n">
-        <v>54.153</v>
+        <v>62.330102</v>
       </c>
       <c r="F1862" t="n">
-        <v>-6.004</v>
+        <v>16.987209</v>
       </c>
       <c r="G1862" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1863">
@@ -50049,26 +50013,26 @@
         <v>1861</v>
       </c>
       <c r="B1863" t="n">
-        <v>38428</v>
+        <v>38406</v>
       </c>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>UK_21</t>
+          <t>SE_65</t>
         </is>
       </c>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>Blue Lough</t>
+          <t>Valasjön</t>
         </is>
       </c>
       <c r="E1863" t="n">
-        <v>54.154167</v>
+        <v>63.002451</v>
       </c>
       <c r="F1863" t="n">
-        <v>-5.9675</v>
+        <v>17.515287</v>
       </c>
       <c r="G1863" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1864">
@@ -50076,26 +50040,26 @@
         <v>1862</v>
       </c>
       <c r="B1864" t="n">
-        <v>38429</v>
+        <v>38407</v>
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t>UK_22</t>
+          <t>SE_1096</t>
         </is>
       </c>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>Coneyglen Burn</t>
+          <t>Vrången</t>
         </is>
       </c>
       <c r="E1864" t="n">
-        <v>54.74</v>
+        <v>57.228971</v>
       </c>
       <c r="F1864" t="n">
-        <v>-7.006</v>
+        <v>15.168946</v>
       </c>
       <c r="G1864" t="n">
-        <v>230</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1865">
@@ -50103,26 +50067,26 @@
         <v>1863</v>
       </c>
       <c r="B1865" t="n">
-        <v>38430</v>
+        <v>38408</v>
       </c>
       <c r="C1865" t="inlineStr">
         <is>
-          <t>UK_23</t>
+          <t>SE_1091</t>
         </is>
       </c>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>Narrator Brook</t>
+          <t>Vågsjön</t>
         </is>
       </c>
       <c r="E1865" t="n">
-        <v>50.505</v>
+        <v>59.790109</v>
       </c>
       <c r="F1865" t="n">
-        <v>-4.021</v>
+        <v>13.547115</v>
       </c>
       <c r="G1865" t="n">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1866">
@@ -50130,26 +50094,26 @@
         <v>1864</v>
       </c>
       <c r="B1866" t="n">
-        <v>38646</v>
+        <v>38409</v>
       </c>
       <c r="C1866" t="inlineStr">
         <is>
-          <t>NL_AGE_ARKIV</t>
+          <t>SE_75</t>
         </is>
       </c>
       <c r="D1866" t="inlineStr">
         <is>
-          <t>Achterste Goorven</t>
+          <t>Älgarydssjön</t>
         </is>
       </c>
       <c r="E1866" t="n">
-        <v>51.5647</v>
+        <v>57.175693</v>
       </c>
       <c r="F1866" t="n">
-        <v>5.2138</v>
+        <v>14.272717</v>
       </c>
       <c r="G1866" t="n">
-        <v>14</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1867">
@@ -50157,26 +50121,26 @@
         <v>1865</v>
       </c>
       <c r="B1867" t="n">
-        <v>38647</v>
+        <v>38410</v>
       </c>
       <c r="C1867" t="inlineStr">
         <is>
-          <t>NL_GER-GEP_ARKIV</t>
+          <t>SE_1087</t>
         </is>
       </c>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>Gerritsfles</t>
+          <t>Ämten</t>
         </is>
       </c>
       <c r="E1867" t="n">
-        <v>52.1598</v>
+        <v>59.948681</v>
       </c>
       <c r="F1867" t="n">
-        <v>5.818</v>
+        <v>12.598356</v>
       </c>
       <c r="G1867" t="n">
-        <v>40</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1868">
@@ -50184,26 +50148,26 @@
         <v>1866</v>
       </c>
       <c r="B1868" t="n">
-        <v>38648</v>
+        <v>38411</v>
       </c>
       <c r="C1868" t="inlineStr">
         <is>
-          <t>NL_KLI_ARKIV</t>
+          <t>SE_105</t>
         </is>
       </c>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>Kliplo</t>
+          <t>Öjsjön</t>
         </is>
       </c>
       <c r="E1868" t="n">
-        <v>52.8345</v>
+        <v>58.171908</v>
       </c>
       <c r="F1868" t="n">
-        <v>6.4384</v>
+        <v>16.211824</v>
       </c>
       <c r="G1868" t="n">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1869">
@@ -50211,26 +50175,26 @@
         <v>1867</v>
       </c>
       <c r="B1869" t="n">
-        <v>38435</v>
+        <v>38412</v>
       </c>
       <c r="C1869" t="inlineStr">
         <is>
-          <t>UK_05</t>
+          <t>SE_1103</t>
         </is>
       </c>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>Loch Chon</t>
+          <t>Ölsjön</t>
         </is>
       </c>
       <c r="E1869" t="n">
-        <v>56.228241</v>
+        <v>59.64119</v>
       </c>
       <c r="F1869" t="n">
-        <v>-4.509879</v>
+        <v>15.133184</v>
       </c>
       <c r="G1869" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1870">
@@ -50238,26 +50202,26 @@
         <v>1868</v>
       </c>
       <c r="B1870" t="n">
-        <v>38436</v>
+        <v>38413</v>
       </c>
       <c r="C1870" t="inlineStr">
         <is>
-          <t>UK_06</t>
+          <t>SE_70</t>
         </is>
       </c>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>Loch Tinker</t>
+          <t>Örsjön</t>
         </is>
       </c>
       <c r="E1870" t="n">
-        <v>56.216326</v>
+        <v>56.28636</v>
       </c>
       <c r="F1870" t="n">
-        <v>-4.338136</v>
+        <v>14.685102</v>
       </c>
       <c r="G1870" t="n">
-        <v>420</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1871">
@@ -50265,26 +50229,26 @@
         <v>1869</v>
       </c>
       <c r="B1871" t="n">
-        <v>38437</v>
+        <v>38414</v>
       </c>
       <c r="C1871" t="inlineStr">
         <is>
-          <t>UK_07</t>
+          <t>SE_1946</t>
         </is>
       </c>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>Round Loch of Glenhead</t>
+          <t>Örvattnet</t>
         </is>
       </c>
       <c r="E1871" t="n">
-        <v>55.0895</v>
+        <v>59.72567</v>
       </c>
       <c r="F1871" t="n">
-        <v>-4.424167</v>
+        <v>12.757958</v>
       </c>
       <c r="G1871" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1872">
@@ -50292,26 +50256,26 @@
         <v>1870</v>
       </c>
       <c r="B1872" t="n">
-        <v>38438</v>
+        <v>38415</v>
       </c>
       <c r="C1872" t="inlineStr">
         <is>
-          <t>UK_08</t>
+          <t>SE_59</t>
         </is>
       </c>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>Loch Grannoch</t>
+          <t>Översjön</t>
         </is>
       </c>
       <c r="E1872" t="n">
-        <v>55.003444</v>
+        <v>59.893039</v>
       </c>
       <c r="F1872" t="n">
-        <v>-4.265469</v>
+        <v>13.338181</v>
       </c>
       <c r="G1872" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1873">
@@ -50319,26 +50283,26 @@
         <v>1871</v>
       </c>
       <c r="B1873" t="n">
-        <v>38439</v>
+        <v>38416</v>
       </c>
       <c r="C1873" t="inlineStr">
         <is>
-          <t>UK_09</t>
+          <t>SE_80</t>
         </is>
       </c>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>Dargall Lane</t>
+          <t>Överudssjön</t>
         </is>
       </c>
       <c r="E1873" t="n">
-        <v>55.078</v>
+        <v>59.409459</v>
       </c>
       <c r="F1873" t="n">
-        <v>-4.431</v>
+        <v>12.98413</v>
       </c>
       <c r="G1873" t="n">
-        <v>260</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1874">
@@ -50346,26 +50310,26 @@
         <v>1872</v>
       </c>
       <c r="B1874" t="n">
-        <v>38441</v>
+        <v>38417</v>
       </c>
       <c r="C1874" t="inlineStr">
         <is>
-          <t>US_020059O</t>
+          <t>SE_90</t>
         </is>
       </c>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>Big Hope Pond, Adirondacks</t>
+          <t>Övre Skärsjön</t>
         </is>
       </c>
       <c r="E1874" t="n">
-        <v>44.5119</v>
+        <v>59.837085</v>
       </c>
       <c r="F1874" t="n">
-        <v>-74.125</v>
+        <v>15.5503</v>
       </c>
       <c r="G1874" t="n">
-        <v>522</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1875">
@@ -50373,26 +50337,26 @@
         <v>1873</v>
       </c>
       <c r="B1875" t="n">
-        <v>38442</v>
+        <v>38418</v>
       </c>
       <c r="C1875" t="inlineStr">
         <is>
-          <t>US_020138O</t>
+          <t>UK_10</t>
         </is>
       </c>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>East Copperas Pond, Adirondacks</t>
+          <t>Scoat Tarn</t>
         </is>
       </c>
       <c r="E1875" t="n">
-        <v>44.3119</v>
+        <v>54.475667</v>
       </c>
       <c r="F1875" t="n">
-        <v>-74.37220000000001</v>
+        <v>-3.292167</v>
       </c>
       <c r="G1875" t="n">
-        <v>479</v>
+        <v>602</v>
       </c>
     </row>
     <row r="1876">
@@ -50400,26 +50364,26 @@
         <v>1874</v>
       </c>
       <c r="B1876" t="n">
-        <v>38443</v>
+        <v>38419</v>
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t>US_020188E</t>
+          <t>UK_11</t>
         </is>
       </c>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>Sunday Pond, Adirondacks</t>
+          <t>Burnmoor Tarn</t>
         </is>
       </c>
       <c r="E1876" t="n">
-        <v>44.3447</v>
+        <v>54.48402</v>
       </c>
       <c r="F1876" t="n">
-        <v>-74.3005</v>
+        <v>-3.091238</v>
       </c>
       <c r="G1876" t="n">
-        <v>485</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1877">
@@ -50427,26 +50391,26 @@
         <v>1875</v>
       </c>
       <c r="B1877" t="n">
-        <v>38444</v>
+        <v>38420</v>
       </c>
       <c r="C1877" t="inlineStr">
         <is>
-          <t>US_020197E</t>
+          <t>UK_12</t>
         </is>
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>Sochia Pond, Adirondacks</t>
+          <t>River Etherow</t>
         </is>
       </c>
       <c r="E1877" t="n">
-        <v>44.3522</v>
+        <v>53.493</v>
       </c>
       <c r="F1877" t="n">
-        <v>-74.29470000000001</v>
+        <v>-1.827</v>
       </c>
       <c r="G1877" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1878">
@@ -50454,26 +50418,26 @@
         <v>1876</v>
       </c>
       <c r="B1878" t="n">
-        <v>38445</v>
+        <v>38421</v>
       </c>
       <c r="C1878" t="inlineStr">
         <is>
-          <t>US_020265O</t>
+          <t>UK_13</t>
         </is>
       </c>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>Marcy Dam Pond, Adirondacks</t>
+          <t>Old Lodge</t>
         </is>
       </c>
       <c r="E1878" t="n">
-        <v>44.1589</v>
+        <v>51.045</v>
       </c>
       <c r="F1878" t="n">
-        <v>-73.953</v>
+        <v>0.076</v>
       </c>
       <c r="G1878" t="n">
-        <v>715</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1879">
@@ -50481,26 +50445,26 @@
         <v>1877</v>
       </c>
       <c r="B1879" t="n">
-        <v>38446</v>
+        <v>38422</v>
       </c>
       <c r="C1879" t="inlineStr">
         <is>
-          <t>US_030171E</t>
+          <t>UK_15</t>
         </is>
       </c>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>Grass Pond, Adirondacks</t>
+          <t>Llyn Llagi</t>
         </is>
       </c>
       <c r="E1879" t="n">
-        <v>44.6572</v>
+        <v>53.008833</v>
       </c>
       <c r="F1879" t="n">
-        <v>-74.4958</v>
+        <v>-4.0085</v>
       </c>
       <c r="G1879" t="n">
-        <v>546</v>
+        <v>380</v>
       </c>
     </row>
     <row r="1880">
@@ -50508,26 +50472,26 @@
         <v>1878</v>
       </c>
       <c r="B1880" t="n">
-        <v>38447</v>
+        <v>38423</v>
       </c>
       <c r="C1880" t="inlineStr">
         <is>
-          <t>US_040186O</t>
+          <t>UK_16</t>
         </is>
       </c>
       <c r="D1880" t="inlineStr">
         <is>
-          <t>Loon Hollow Pond, Adirondacks</t>
+          <t>Llyn Cwm Mynach</t>
         </is>
       </c>
       <c r="E1880" t="n">
-        <v>43.9614</v>
+        <v>52.795537</v>
       </c>
       <c r="F1880" t="n">
-        <v>-75.04519999999999</v>
+        <v>-3.962134</v>
       </c>
       <c r="G1880" t="n">
-        <v>607</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1881">
@@ -50535,26 +50499,26 @@
         <v>1879</v>
       </c>
       <c r="B1881" t="n">
-        <v>38448</v>
+        <v>38424</v>
       </c>
       <c r="C1881" t="inlineStr">
         <is>
-          <t>US_040210O</t>
+          <t>UK_17</t>
         </is>
       </c>
       <c r="D1881" t="inlineStr">
         <is>
-          <t>Willys Lake, Adirondacks</t>
+          <t>Afon Hafren</t>
         </is>
       </c>
       <c r="E1881" t="n">
-        <v>43.9722</v>
+        <v>52.457</v>
       </c>
       <c r="F1881" t="n">
-        <v>-74.9555</v>
+        <v>-3.48</v>
       </c>
       <c r="G1881" t="n">
-        <v>630</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1882">
@@ -50562,26 +50526,26 @@
         <v>1880</v>
       </c>
       <c r="B1882" t="n">
-        <v>38449</v>
+        <v>38425</v>
       </c>
       <c r="C1882" t="inlineStr">
         <is>
-          <t>US_040576O</t>
+          <t>UK_19</t>
         </is>
       </c>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>Woods Lake, Adirondacks</t>
+          <t>Beaghs Burn</t>
         </is>
       </c>
       <c r="E1882" t="n">
-        <v>43.8705</v>
+        <v>55.101</v>
       </c>
       <c r="F1882" t="n">
-        <v>-74.9522</v>
+        <v>-6.162</v>
       </c>
       <c r="G1882" t="n">
-        <v>607</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1883">
@@ -50589,26 +50553,26 @@
         <v>1881</v>
       </c>
       <c r="B1883" t="n">
-        <v>38450</v>
+        <v>38426</v>
       </c>
       <c r="C1883" t="inlineStr">
         <is>
-          <t>US_040704O</t>
+          <t>UK_02</t>
         </is>
       </c>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>Middle Settlement Lake, Adirondacks</t>
+          <t>Allt a'Mharcaidh</t>
         </is>
       </c>
       <c r="E1883" t="n">
-        <v>43.6839</v>
+        <v>57.118</v>
       </c>
       <c r="F1883" t="n">
-        <v>-75.09999999999999</v>
+        <v>-3.85</v>
       </c>
       <c r="G1883" t="n">
-        <v>526</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1884">
@@ -50616,26 +50580,26 @@
         <v>1882</v>
       </c>
       <c r="B1884" t="n">
-        <v>38451</v>
+        <v>38427</v>
       </c>
       <c r="C1884" t="inlineStr">
         <is>
-          <t>US_1A3-048O</t>
+          <t>UK_20</t>
         </is>
       </c>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>Grass Pond, Adirondacks</t>
+          <t>Bencrom River</t>
         </is>
       </c>
       <c r="E1884" t="n">
-        <v>43.6903</v>
+        <v>54.153</v>
       </c>
       <c r="F1884" t="n">
-        <v>-75.06489999999999</v>
+        <v>-6.004</v>
       </c>
       <c r="G1884" t="n">
-        <v>384</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1885">
@@ -50643,26 +50607,26 @@
         <v>1883</v>
       </c>
       <c r="B1885" t="n">
-        <v>38452</v>
+        <v>38428</v>
       </c>
       <c r="C1885" t="inlineStr">
         <is>
-          <t>US_040707O</t>
+          <t>UK_21</t>
         </is>
       </c>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>Middle Branch Lake, Adirondacks</t>
+          <t>Blue Lough</t>
         </is>
       </c>
       <c r="E1885" t="n">
-        <v>43.6978</v>
+        <v>54.154167</v>
       </c>
       <c r="F1885" t="n">
-        <v>-75.1022</v>
+        <v>-5.9675</v>
       </c>
       <c r="G1885" t="n">
-        <v>494</v>
+        <v>340</v>
       </c>
     </row>
     <row r="1886">
@@ -50670,26 +50634,26 @@
         <v>1884</v>
       </c>
       <c r="B1886" t="n">
-        <v>38453</v>
+        <v>38429</v>
       </c>
       <c r="C1886" t="inlineStr">
         <is>
-          <t>US_040826O</t>
+          <t>UK_22</t>
         </is>
       </c>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>Limekiln Lake, Adirondacks</t>
+          <t>Coneyglen Burn</t>
         </is>
       </c>
       <c r="E1886" t="n">
-        <v>43.7133</v>
+        <v>54.74</v>
       </c>
       <c r="F1886" t="n">
-        <v>-74.813</v>
+        <v>-7.006</v>
       </c>
       <c r="G1886" t="n">
-        <v>576</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1887">
@@ -50697,26 +50661,26 @@
         <v>1885</v>
       </c>
       <c r="B1887" t="n">
-        <v>38454</v>
+        <v>38430</v>
       </c>
       <c r="C1887" t="inlineStr">
         <is>
-          <t>US_040850O</t>
+          <t>UK_23</t>
         </is>
       </c>
       <c r="D1887" t="inlineStr">
         <is>
-          <t>Squaw Lake, Adirondacks</t>
+          <t>Narrator Brook</t>
         </is>
       </c>
       <c r="E1887" t="n">
-        <v>43.6361</v>
+        <v>50.505</v>
       </c>
       <c r="F1887" t="n">
-        <v>-74.7388</v>
+        <v>-4.021</v>
       </c>
       <c r="G1887" t="n">
-        <v>645</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1888">
@@ -50724,26 +50688,26 @@
         <v>1886</v>
       </c>
       <c r="B1888" t="n">
-        <v>38455</v>
+        <v>38646</v>
       </c>
       <c r="C1888" t="inlineStr">
         <is>
-          <t>US_040852O</t>
+          <t>NL_AGE_ARKIV</t>
         </is>
       </c>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>Indian Lake, Adirondacks</t>
+          <t>Achterste Goorven</t>
         </is>
       </c>
       <c r="E1888" t="n">
-        <v>43.6233</v>
+        <v>51.5647</v>
       </c>
       <c r="F1888" t="n">
-        <v>-74.76220000000001</v>
+        <v>5.2138</v>
       </c>
       <c r="G1888" t="n">
-        <v>654</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1889">
@@ -50751,26 +50715,26 @@
         <v>1887</v>
       </c>
       <c r="B1889" t="n">
-        <v>38456</v>
+        <v>38647</v>
       </c>
       <c r="C1889" t="inlineStr">
         <is>
-          <t>US_040874O</t>
+          <t>NL_GER-GEP_ARKIV</t>
         </is>
       </c>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>Brook Trout Lake, Adirondacks</t>
+          <t>Gerritsfles</t>
         </is>
       </c>
       <c r="E1889" t="n">
-        <v>43.6</v>
+        <v>52.1598</v>
       </c>
       <c r="F1889" t="n">
-        <v>-74.66249999999999</v>
+        <v>5.818</v>
       </c>
       <c r="G1889" t="n">
-        <v>722</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1890">
@@ -50778,26 +50742,26 @@
         <v>1888</v>
       </c>
       <c r="B1890" t="n">
-        <v>38457</v>
+        <v>38648</v>
       </c>
       <c r="C1890" t="inlineStr">
         <is>
-          <t>US_040887O</t>
+          <t>NL_KLI_ARKIV</t>
         </is>
       </c>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>Lost Pond, Adirondacks</t>
+          <t>Kliplo</t>
         </is>
       </c>
       <c r="E1890" t="n">
-        <v>43.6466</v>
+        <v>52.8345</v>
       </c>
       <c r="F1890" t="n">
-        <v>-74.5583</v>
+        <v>6.4384</v>
       </c>
       <c r="G1890" t="n">
-        <v>584</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1891">
@@ -50805,26 +50769,26 @@
         <v>1889</v>
       </c>
       <c r="B1891" t="n">
-        <v>38458</v>
+        <v>38435</v>
       </c>
       <c r="C1891" t="inlineStr">
         <is>
-          <t>US_1A3-065O</t>
+          <t>UK_05</t>
         </is>
       </c>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>South Lake, Adirondacks</t>
+          <t>Loch Chon</t>
         </is>
       </c>
       <c r="E1891" t="n">
-        <v>43.5097</v>
+        <v>56.228241</v>
       </c>
       <c r="F1891" t="n">
-        <v>-74.87690000000001</v>
+        <v>-4.509879</v>
       </c>
       <c r="G1891" t="n">
-        <v>615</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1892">
@@ -50832,26 +50796,26 @@
         <v>1890</v>
       </c>
       <c r="B1892" t="n">
-        <v>38459</v>
+        <v>38436</v>
       </c>
       <c r="C1892" t="inlineStr">
         <is>
-          <t>US_041007O</t>
+          <t>UK_06</t>
         </is>
       </c>
       <c r="D1892" t="inlineStr">
         <is>
-          <t>North Lake, Adirondacks</t>
+          <t>Loch Tinker</t>
         </is>
       </c>
       <c r="E1892" t="n">
-        <v>43.5228</v>
+        <v>56.216326</v>
       </c>
       <c r="F1892" t="n">
-        <v>-74.94799999999999</v>
+        <v>-4.338136</v>
       </c>
       <c r="G1892" t="n">
-        <v>555</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1893">
@@ -50859,26 +50823,26 @@
         <v>1891</v>
       </c>
       <c r="B1893" t="n">
-        <v>38460</v>
+        <v>38437</v>
       </c>
       <c r="C1893" t="inlineStr">
         <is>
-          <t>US_050649O</t>
+          <t>UK_07</t>
         </is>
       </c>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>Long Pond, Adirondacks</t>
+          <t>Round Loch of Glenhead</t>
         </is>
       </c>
       <c r="E1893" t="n">
-        <v>43.8375</v>
+        <v>55.0895</v>
       </c>
       <c r="F1893" t="n">
-        <v>-74.48050000000001</v>
+        <v>-4.424167</v>
       </c>
       <c r="G1893" t="n">
-        <v>570</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1894">
@@ -50886,26 +50850,26 @@
         <v>1892</v>
       </c>
       <c r="B1894" t="n">
-        <v>38461</v>
+        <v>38438</v>
       </c>
       <c r="C1894" t="inlineStr">
         <is>
-          <t>US_050669E</t>
+          <t>UK_08</t>
         </is>
       </c>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>Carry Pond, Adirondacks</t>
+          <t>Loch Grannoch</t>
         </is>
       </c>
       <c r="E1894" t="n">
-        <v>43.6816</v>
+        <v>55.003444</v>
       </c>
       <c r="F1894" t="n">
-        <v>-74.48909999999999</v>
+        <v>-4.265469</v>
       </c>
       <c r="G1894" t="n">
-        <v>649</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1895">
@@ -50913,26 +50877,26 @@
         <v>1893</v>
       </c>
       <c r="B1895" t="n">
-        <v>38462</v>
+        <v>38439</v>
       </c>
       <c r="C1895" t="inlineStr">
         <is>
-          <t>US_050706O</t>
+          <t>UK_09</t>
         </is>
       </c>
       <c r="D1895" t="inlineStr">
         <is>
-          <t>Lake Colden, Adirondacks</t>
+          <t>Dargall Lane</t>
         </is>
       </c>
       <c r="E1895" t="n">
-        <v>44.1191</v>
+        <v>55.078</v>
       </c>
       <c r="F1895" t="n">
-        <v>-73.983</v>
+        <v>-4.431</v>
       </c>
       <c r="G1895" t="n">
-        <v>842</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1896">
@@ -50940,26 +50904,26 @@
         <v>1894</v>
       </c>
       <c r="B1896" t="n">
-        <v>38463</v>
+        <v>38441</v>
       </c>
       <c r="C1896" t="inlineStr">
         <is>
-          <t>US_050707O</t>
+          <t>US_020059O</t>
         </is>
       </c>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>Avalanche Lake, Adirondacks</t>
+          <t>Big Hope Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1896" t="n">
-        <v>44.1308</v>
+        <v>44.5119</v>
       </c>
       <c r="F1896" t="n">
-        <v>-73.97029999999999</v>
+        <v>-74.125</v>
       </c>
       <c r="G1896" t="n">
-        <v>873</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1897">
@@ -50967,26 +50931,26 @@
         <v>1895</v>
       </c>
       <c r="B1897" t="n">
-        <v>38464</v>
+        <v>38442</v>
       </c>
       <c r="C1897" t="inlineStr">
         <is>
-          <t>US_060182O</t>
+          <t>US_020138O</t>
         </is>
       </c>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>Little Simon Pond, Adirondacks</t>
+          <t>East Copperas Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1897" t="n">
-        <v>44.1617</v>
+        <v>44.3119</v>
       </c>
       <c r="F1897" t="n">
-        <v>-74.44329999999999</v>
+        <v>-74.37220000000001</v>
       </c>
       <c r="G1897" t="n">
-        <v>545</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1898">
@@ -50994,26 +50958,26 @@
         <v>1896</v>
       </c>
       <c r="B1898" t="n">
-        <v>38465</v>
+        <v>38443</v>
       </c>
       <c r="C1898" t="inlineStr">
         <is>
-          <t>US_060315AO</t>
+          <t>US_020188E</t>
         </is>
       </c>
       <c r="D1898" t="inlineStr">
         <is>
-          <t>Raquette Lake Reservoir, Adirondacks</t>
+          <t>Sunday Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1898" t="n">
-        <v>43.795</v>
+        <v>44.3447</v>
       </c>
       <c r="F1898" t="n">
-        <v>-74.6514</v>
+        <v>-74.3005</v>
       </c>
       <c r="G1898" t="n">
-        <v>570</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1899">
@@ -51021,26 +50985,26 @@
         <v>1897</v>
       </c>
       <c r="B1899" t="n">
-        <v>38466</v>
+        <v>38444</v>
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>US_070859O</t>
+          <t>US_020197E</t>
         </is>
       </c>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>G Lake, Adirondacks</t>
+          <t>Sochia Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1899" t="n">
-        <v>43.418</v>
+        <v>44.3522</v>
       </c>
       <c r="F1899" t="n">
-        <v>-74.6361</v>
+        <v>-74.29470000000001</v>
       </c>
       <c r="G1899" t="n">
-        <v>619</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1900">
@@ -51048,26 +51012,26 @@
         <v>1898</v>
       </c>
       <c r="B1900" t="n">
-        <v>38467</v>
+        <v>38445</v>
       </c>
       <c r="C1900" t="inlineStr">
         <is>
-          <t>US_01364959</t>
+          <t>US_020265O</t>
         </is>
       </c>
       <c r="D1900" t="inlineStr">
         <is>
-          <t>Rondout Creek, Catskills</t>
+          <t>Marcy Dam Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1900" t="n">
-        <v>41.9367</v>
+        <v>44.1589</v>
       </c>
       <c r="F1900" t="n">
-        <v>-74.3764</v>
+        <v>-73.953</v>
       </c>
       <c r="G1900" t="n">
-        <v>503</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1901">
@@ -51075,26 +51039,26 @@
         <v>1899</v>
       </c>
       <c r="B1901" t="n">
-        <v>38468</v>
+        <v>38446</v>
       </c>
       <c r="C1901" t="inlineStr">
         <is>
-          <t>US_0143400680</t>
+          <t>US_030171E</t>
         </is>
       </c>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>East Branch Neversink River, Catskills</t>
+          <t>Grass Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1901" t="n">
-        <v>41.9869</v>
+        <v>44.6572</v>
       </c>
       <c r="F1901" t="n">
-        <v>-74.5031</v>
+        <v>-74.4958</v>
       </c>
       <c r="G1901" t="n">
-        <v>652</v>
+        <v>546</v>
       </c>
     </row>
     <row r="1902">
@@ -51102,26 +51066,26 @@
         <v>1900</v>
       </c>
       <c r="B1902" t="n">
-        <v>38469</v>
+        <v>38447</v>
       </c>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>US_01434021</t>
+          <t>US_040186O</t>
         </is>
       </c>
       <c r="D1902" t="inlineStr">
         <is>
-          <t>West Branch Neversink River at Winnisook, Catskills</t>
+          <t>Loon Hollow Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1902" t="n">
-        <v>41.9725</v>
+        <v>43.9614</v>
       </c>
       <c r="F1902" t="n">
-        <v>-74.4483</v>
+        <v>-75.04519999999999</v>
       </c>
       <c r="G1902" t="n">
-        <v>816</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1903">
@@ -51129,26 +51093,26 @@
         <v>1901</v>
       </c>
       <c r="B1903" t="n">
-        <v>38470</v>
+        <v>38448</v>
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t>US_01434025</t>
+          <t>US_040210O</t>
         </is>
       </c>
       <c r="D1903" t="inlineStr">
         <is>
-          <t>Biscuit Brook, Catskills</t>
+          <t>Willys Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1903" t="n">
-        <v>42.0111</v>
+        <v>43.9722</v>
       </c>
       <c r="F1903" t="n">
-        <v>-74.4147</v>
+        <v>-74.9555</v>
       </c>
       <c r="G1903" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1904">
@@ -51156,26 +51120,26 @@
         <v>1902</v>
       </c>
       <c r="B1904" t="n">
-        <v>38471</v>
+        <v>38449</v>
       </c>
       <c r="C1904" t="inlineStr">
         <is>
-          <t>US_1A1-017S</t>
+          <t>US_040576O</t>
         </is>
       </c>
       <c r="D1904" t="inlineStr">
         <is>
-          <t>Constable Pond Stream, Adirondacks</t>
+          <t>Woods Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1904" t="n">
-        <v>43.8273</v>
+        <v>43.8705</v>
       </c>
       <c r="F1904" t="n">
-        <v>-74.8241</v>
+        <v>-74.9522</v>
       </c>
       <c r="G1904" t="n">
-        <v>582</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1905">
@@ -51183,26 +51147,26 @@
         <v>1903</v>
       </c>
       <c r="B1905" t="n">
-        <v>38472</v>
+        <v>38450</v>
       </c>
       <c r="C1905" t="inlineStr">
         <is>
-          <t>US_1A1-029O</t>
+          <t>US_040704O</t>
         </is>
       </c>
       <c r="D1905" t="inlineStr">
         <is>
-          <t>Middle Pond, Adirondacks</t>
+          <t>Middle Settlement Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1905" t="n">
-        <v>44.3369</v>
+        <v>43.6839</v>
       </c>
       <c r="F1905" t="n">
-        <v>-74.3719</v>
+        <v>-75.09999999999999</v>
       </c>
       <c r="G1905" t="n">
-        <v>484</v>
+        <v>526</v>
       </c>
     </row>
     <row r="1906">
@@ -51210,26 +51174,26 @@
         <v>1904</v>
       </c>
       <c r="B1906" t="n">
-        <v>38473</v>
+        <v>38451</v>
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t>US_1A1-052O</t>
+          <t>US_1A3-048O</t>
         </is>
       </c>
       <c r="D1906" t="inlineStr">
         <is>
-          <t>Arbutus Lake, Adirondacks</t>
+          <t>Grass Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1906" t="n">
-        <v>43.9875</v>
+        <v>43.6903</v>
       </c>
       <c r="F1906" t="n">
-        <v>-74.24169999999999</v>
+        <v>-75.06489999999999</v>
       </c>
       <c r="G1906" t="n">
-        <v>513</v>
+        <v>384</v>
       </c>
     </row>
     <row r="1907">
@@ -51237,26 +51201,26 @@
         <v>1905</v>
       </c>
       <c r="B1907" t="n">
-        <v>38474</v>
+        <v>38452</v>
       </c>
       <c r="C1907" t="inlineStr">
         <is>
-          <t>US_1A1-059O</t>
+          <t>US_040707O</t>
         </is>
       </c>
       <c r="D1907" t="inlineStr">
         <is>
-          <t>Sagamore Lake, Adirondacks</t>
+          <t>Middle Branch Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1907" t="n">
-        <v>43.7658</v>
+        <v>43.6978</v>
       </c>
       <c r="F1907" t="n">
-        <v>-74.62860000000001</v>
+        <v>-75.1022</v>
       </c>
       <c r="G1907" t="n">
-        <v>580</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1908">
@@ -51264,26 +51228,26 @@
         <v>1906</v>
       </c>
       <c r="B1908" t="n">
-        <v>38475</v>
+        <v>38453</v>
       </c>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>US_1A1-071S</t>
+          <t>US_040826O</t>
         </is>
       </c>
       <c r="D1908" t="inlineStr">
         <is>
-          <t>Black Pond Stream, Adirondacks</t>
+          <t>Limekiln Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1908" t="n">
-        <v>44.432</v>
+        <v>43.7133</v>
       </c>
       <c r="F1908" t="n">
-        <v>-74.2984</v>
+        <v>-74.813</v>
       </c>
       <c r="G1908" t="n">
-        <v>497</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1909">
@@ -51291,26 +51255,26 @@
         <v>1907</v>
       </c>
       <c r="B1909" t="n">
-        <v>38476</v>
+        <v>38454</v>
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t>US_1A1-087S</t>
+          <t>US_040850O</t>
         </is>
       </c>
       <c r="D1909" t="inlineStr">
         <is>
-          <t>Windfall Pond Stream, Adirondacks</t>
+          <t>Squaw Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1909" t="n">
-        <v>43.7977</v>
+        <v>43.6361</v>
       </c>
       <c r="F1909" t="n">
-        <v>-74.8502</v>
+        <v>-74.7388</v>
       </c>
       <c r="G1909" t="n">
-        <v>595</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1910">
@@ -51318,26 +51282,26 @@
         <v>1908</v>
       </c>
       <c r="B1910" t="n">
-        <v>38477</v>
+        <v>38455</v>
       </c>
       <c r="C1910" t="inlineStr">
         <is>
-          <t>US_1A1-089O</t>
+          <t>US_040852O</t>
         </is>
       </c>
       <c r="D1910" t="inlineStr">
         <is>
-          <t>Queer Lake, Adirondacks</t>
+          <t>Indian Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1910" t="n">
-        <v>43.8136</v>
+        <v>43.6233</v>
       </c>
       <c r="F1910" t="n">
-        <v>-74.8069</v>
+        <v>-74.76220000000001</v>
       </c>
       <c r="G1910" t="n">
-        <v>597</v>
+        <v>654</v>
       </c>
     </row>
     <row r="1911">
@@ -51345,26 +51309,26 @@
         <v>1909</v>
       </c>
       <c r="B1911" t="n">
-        <v>38478</v>
+        <v>38456</v>
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>US_1A1-102O</t>
+          <t>US_040874O</t>
         </is>
       </c>
       <c r="D1911" t="inlineStr">
         <is>
-          <t>Heart Lake, Adirondacks</t>
+          <t>Brook Trout Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1911" t="n">
-        <v>44.1822</v>
+        <v>43.6</v>
       </c>
       <c r="F1911" t="n">
-        <v>-73.96939999999999</v>
+        <v>-74.66249999999999</v>
       </c>
       <c r="G1911" t="n">
-        <v>659</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1912">
@@ -51372,26 +51336,26 @@
         <v>1910</v>
       </c>
       <c r="B1912" t="n">
-        <v>38479</v>
+        <v>38457</v>
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>US_1A1-103O</t>
+          <t>US_040887O</t>
         </is>
       </c>
       <c r="D1912" t="inlineStr">
         <is>
-          <t>Big Moose Lake, Adirondacks</t>
+          <t>Lost Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1912" t="n">
-        <v>43.8292</v>
+        <v>43.6466</v>
       </c>
       <c r="F1912" t="n">
-        <v>-74.84999999999999</v>
+        <v>-74.5583</v>
       </c>
       <c r="G1912" t="n">
-        <v>556</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1913">
@@ -51399,26 +51363,26 @@
         <v>1911</v>
       </c>
       <c r="B1913" t="n">
-        <v>38480</v>
+        <v>38458</v>
       </c>
       <c r="C1913" t="inlineStr">
         <is>
-          <t>US_1A1-105S</t>
+          <t>US_1A3-065O</t>
         </is>
       </c>
       <c r="D1913" t="inlineStr">
         <is>
-          <t>Cascade Lake Stream, Adirondacks</t>
+          <t>South Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1913" t="n">
-        <v>43.7835</v>
+        <v>43.5097</v>
       </c>
       <c r="F1913" t="n">
-        <v>-74.8365</v>
+        <v>-74.87690000000001</v>
       </c>
       <c r="G1913" t="n">
-        <v>553</v>
+        <v>615</v>
       </c>
     </row>
     <row r="1914">
@@ -51426,26 +51390,26 @@
         <v>1912</v>
       </c>
       <c r="B1914" t="n">
-        <v>38481</v>
+        <v>38459</v>
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>US_1A1-106O</t>
+          <t>US_041007O</t>
         </is>
       </c>
       <c r="D1914" t="inlineStr">
         <is>
-          <t>Dart Lake, Adirondacks</t>
+          <t>North Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1914" t="n">
-        <v>43.7972</v>
+        <v>43.5228</v>
       </c>
       <c r="F1914" t="n">
-        <v>-74.8583</v>
+        <v>-74.94799999999999</v>
       </c>
       <c r="G1914" t="n">
-        <v>535</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1915">
@@ -51453,26 +51417,26 @@
         <v>1913</v>
       </c>
       <c r="B1915" t="n">
-        <v>38482</v>
+        <v>38460</v>
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>US_1A1-107E</t>
+          <t>US_050649O</t>
         </is>
       </c>
       <c r="D1915" t="inlineStr">
         <is>
-          <t>Little Echo Pond, Adirondacks</t>
+          <t>Long Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1915" t="n">
-        <v>44.3055</v>
+        <v>43.8375</v>
       </c>
       <c r="F1915" t="n">
-        <v>-74.39749999999999</v>
+        <v>-74.48050000000001</v>
       </c>
       <c r="G1915" t="n">
-        <v>482</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1916">
@@ -51480,26 +51444,26 @@
         <v>1914</v>
       </c>
       <c r="B1916" t="n">
-        <v>38483</v>
+        <v>38461</v>
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>US_1A1-109O</t>
+          <t>US_050669E</t>
         </is>
       </c>
       <c r="D1916" t="inlineStr">
         <is>
-          <t>Moss Lake, Adirondacks</t>
+          <t>Carry Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1916" t="n">
-        <v>43.7861</v>
+        <v>43.6816</v>
       </c>
       <c r="F1916" t="n">
-        <v>-74.84999999999999</v>
+        <v>-74.48909999999999</v>
       </c>
       <c r="G1916" t="n">
-        <v>535</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1917">
@@ -51507,26 +51471,26 @@
         <v>1915</v>
       </c>
       <c r="B1917" t="n">
-        <v>38484</v>
+        <v>38462</v>
       </c>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>US_1A1-110O</t>
+          <t>US_050706O</t>
         </is>
       </c>
       <c r="D1917" t="inlineStr">
         <is>
-          <t>Lake Rondaxe, Adirondacks</t>
+          <t>Lake Colden, Adirondacks</t>
         </is>
       </c>
       <c r="E1917" t="n">
-        <v>43.7639</v>
+        <v>44.1191</v>
       </c>
       <c r="F1917" t="n">
-        <v>-74.9055</v>
+        <v>-73.983</v>
       </c>
       <c r="G1917" t="n">
-        <v>524</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1918">
@@ -51534,26 +51498,26 @@
         <v>1916</v>
       </c>
       <c r="B1918" t="n">
-        <v>38485</v>
+        <v>38463</v>
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>US_1A1-111S</t>
+          <t>US_050707O</t>
         </is>
       </c>
       <c r="D1918" t="inlineStr">
         <is>
-          <t>Squash Pond Stream, Adirondacks</t>
+          <t>Avalanche Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1918" t="n">
-        <v>43.8229</v>
+        <v>44.1308</v>
       </c>
       <c r="F1918" t="n">
-        <v>-74.902586</v>
+        <v>-73.97029999999999</v>
       </c>
       <c r="G1918" t="n">
-        <v>649</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1919">
@@ -51561,26 +51525,26 @@
         <v>1917</v>
       </c>
       <c r="B1919" t="n">
-        <v>38486</v>
+        <v>38464</v>
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>US_1A1-112S</t>
+          <t>US_060182O</t>
         </is>
       </c>
       <c r="D1919" t="inlineStr">
         <is>
-          <t>West Pond Stream, Adirondacks</t>
+          <t>Little Simon Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1919" t="n">
-        <v>43.8163</v>
+        <v>44.1617</v>
       </c>
       <c r="F1919" t="n">
-        <v>-74.88702000000001</v>
+        <v>-74.44329999999999</v>
       </c>
       <c r="G1919" t="n">
-        <v>579</v>
+        <v>545</v>
       </c>
     </row>
     <row r="1920">
@@ -51588,26 +51552,26 @@
         <v>1918</v>
       </c>
       <c r="B1920" t="n">
-        <v>38487</v>
+        <v>38465</v>
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>US_1A1-113S</t>
+          <t>US_060315AO</t>
         </is>
       </c>
       <c r="D1920" t="inlineStr">
         <is>
-          <t>Bubb Lake Stream, Adirondacks</t>
+          <t>Raquette Lake Reservoir, Adirondacks</t>
         </is>
       </c>
       <c r="E1920" t="n">
-        <v>43.78256</v>
+        <v>43.795</v>
       </c>
       <c r="F1920" t="n">
-        <v>-74.83499999999999</v>
+        <v>-74.6514</v>
       </c>
       <c r="G1920" t="n">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1921">
@@ -51615,26 +51579,26 @@
         <v>1919</v>
       </c>
       <c r="B1921" t="n">
-        <v>38488</v>
+        <v>38466</v>
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>US_1A2-028O</t>
+          <t>US_070859O</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr">
         <is>
-          <t>Owen Pond, Adirondacks</t>
+          <t>G Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1921" t="n">
-        <v>44.323</v>
+        <v>43.418</v>
       </c>
       <c r="F1921" t="n">
-        <v>-73.9033</v>
+        <v>-74.6361</v>
       </c>
       <c r="G1921" t="n">
-        <v>515</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1922">
@@ -51642,26 +51606,26 @@
         <v>1920</v>
       </c>
       <c r="B1922" t="n">
-        <v>38489</v>
+        <v>38467</v>
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>US_1A2-066O</t>
+          <t>US_01364959</t>
         </is>
       </c>
       <c r="D1922" t="inlineStr">
         <is>
-          <t>Jockeybush Lake, Adirondacks</t>
+          <t>Rondout Creek, Catskills</t>
         </is>
       </c>
       <c r="E1922" t="n">
-        <v>43.3022</v>
+        <v>41.9367</v>
       </c>
       <c r="F1922" t="n">
-        <v>-74.58580000000001</v>
+        <v>-74.3764</v>
       </c>
       <c r="G1922" t="n">
-        <v>599</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1923">
@@ -51669,26 +51633,26 @@
         <v>1921</v>
       </c>
       <c r="B1923" t="n">
-        <v>38490</v>
+        <v>38468</v>
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>US_1A2-077O</t>
+          <t>US_0143400680</t>
         </is>
       </c>
       <c r="D1923" t="inlineStr">
         <is>
-          <t>Clear Pond, Adirondacks</t>
+          <t>East Branch Neversink River, Catskills</t>
         </is>
       </c>
       <c r="E1923" t="n">
-        <v>44</v>
+        <v>41.9869</v>
       </c>
       <c r="F1923" t="n">
-        <v>-73.8222</v>
+        <v>-74.5031</v>
       </c>
       <c r="G1923" t="n">
-        <v>582</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1924">
@@ -51696,26 +51660,26 @@
         <v>1922</v>
       </c>
       <c r="B1924" t="n">
-        <v>38491</v>
+        <v>38469</v>
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>US_1A1-078S</t>
+          <t>US_01434021</t>
         </is>
       </c>
       <c r="D1924" t="inlineStr">
         <is>
-          <t>Otter Lake Stream, Adirondacks</t>
+          <t>West Branch Neversink River at Winnisook, Catskills</t>
         </is>
       </c>
       <c r="E1924" t="n">
-        <v>43.182</v>
+        <v>41.9725</v>
       </c>
       <c r="F1924" t="n">
-        <v>-74.5022</v>
+        <v>-74.4483</v>
       </c>
       <c r="G1924" t="n">
-        <v>502</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1925">
@@ -51723,26 +51687,26 @@
         <v>1923</v>
       </c>
       <c r="B1925" t="n">
-        <v>38492</v>
+        <v>38470</v>
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>US_1A3-001O</t>
+          <t>US_01434025</t>
         </is>
       </c>
       <c r="D1925" t="inlineStr">
         <is>
-          <t>Nate Pond, Adirondacks</t>
+          <t>Biscuit Brook, Catskills</t>
         </is>
       </c>
       <c r="E1925" t="n">
-        <v>43.8592</v>
+        <v>42.0111</v>
       </c>
       <c r="F1925" t="n">
-        <v>-74.0933</v>
+        <v>-74.4147</v>
       </c>
       <c r="G1925" t="n">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1926">
@@ -51750,26 +51714,26 @@
         <v>1924</v>
       </c>
       <c r="B1926" t="n">
-        <v>38493</v>
+        <v>38471</v>
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>US_1C1-078E</t>
+          <t>US_1A1-017S</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr">
         <is>
-          <t>Bean Pond, Maine</t>
+          <t>Constable Pond Stream, Adirondacks</t>
         </is>
       </c>
       <c r="E1926" t="n">
-        <v>45.1272</v>
+        <v>43.8273</v>
       </c>
       <c r="F1926" t="n">
-        <v>-69.9781</v>
+        <v>-74.8241</v>
       </c>
       <c r="G1926" t="n">
-        <v>381</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1927">
@@ -51777,26 +51741,26 @@
         <v>1925</v>
       </c>
       <c r="B1927" t="n">
-        <v>38494</v>
+        <v>38472</v>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>US_1C1-089</t>
+          <t>US_1A1-029O</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>Bourn, Vermont</t>
+          <t>Middle Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1927" t="n">
-        <v>43.1055</v>
+        <v>44.3369</v>
       </c>
       <c r="F1927" t="n">
-        <v>-73.00279999999999</v>
+        <v>-74.3719</v>
       </c>
       <c r="G1927" t="n">
-        <v>778</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1928">
@@ -51804,26 +51768,26 @@
         <v>1926</v>
       </c>
       <c r="B1928" t="n">
-        <v>38495</v>
+        <v>38473</v>
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>US_1C1-090</t>
+          <t>US_1A1-052O</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>Grout, Vermont</t>
+          <t>Arbutus Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1928" t="n">
-        <v>43.0455</v>
+        <v>43.9875</v>
       </c>
       <c r="F1928" t="n">
-        <v>-72.94580000000001</v>
+        <v>-74.24169999999999</v>
       </c>
       <c r="G1928" t="n">
-        <v>681</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1929">
@@ -51831,26 +51795,26 @@
         <v>1927</v>
       </c>
       <c r="B1929" t="n">
-        <v>38496</v>
+        <v>38474</v>
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>US_1C1-093</t>
+          <t>US_1A1-059O</t>
         </is>
       </c>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>Little Woodford, Vermont</t>
+          <t>Sagamore Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1929" t="n">
-        <v>42.925</v>
+        <v>43.7658</v>
       </c>
       <c r="F1929" t="n">
-        <v>-73.06529999999999</v>
+        <v>-74.62860000000001</v>
       </c>
       <c r="G1929" t="n">
-        <v>793</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1930">
@@ -51858,26 +51822,26 @@
         <v>1928</v>
       </c>
       <c r="B1930" t="n">
-        <v>38497</v>
+        <v>38475</v>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>US_1C1-097</t>
+          <t>US_1A1-071S</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>Sunset, Vermont</t>
+          <t>Black Pond Stream, Adirondacks</t>
         </is>
       </c>
       <c r="E1930" t="n">
-        <v>42.9194</v>
+        <v>44.432</v>
       </c>
       <c r="F1930" t="n">
-        <v>-72.6833</v>
+        <v>-74.2984</v>
       </c>
       <c r="G1930" t="n">
-        <v>421</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1931">
@@ -51885,26 +51849,26 @@
         <v>1929</v>
       </c>
       <c r="B1931" t="n">
-        <v>38498</v>
+        <v>38476</v>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>US_1C1-100</t>
+          <t>US_1A1-087S</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>Big Mud, Vermont</t>
+          <t>Windfall Pond Stream, Adirondacks</t>
         </is>
       </c>
       <c r="E1931" t="n">
-        <v>43.3139</v>
+        <v>43.7977</v>
       </c>
       <c r="F1931" t="n">
-        <v>-72.93049999999999</v>
+        <v>-74.8502</v>
       </c>
       <c r="G1931" t="n">
-        <v>789</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1932">
@@ -51912,26 +51876,26 @@
         <v>1930</v>
       </c>
       <c r="B1932" t="n">
-        <v>38499</v>
+        <v>38477</v>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>US_1C1-101</t>
+          <t>US_1A1-089O</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr">
         <is>
-          <t>Branch, Vermont</t>
+          <t>Queer Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1932" t="n">
-        <v>43.0811</v>
+        <v>43.8136</v>
       </c>
       <c r="F1932" t="n">
-        <v>-73.01860000000001</v>
+        <v>-74.8069</v>
       </c>
       <c r="G1932" t="n">
-        <v>802</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1933">
@@ -51939,26 +51903,26 @@
         <v>1931</v>
       </c>
       <c r="B1933" t="n">
-        <v>38500</v>
+        <v>38478</v>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>US_1C1-110</t>
+          <t>US_1A1-102O</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr">
         <is>
-          <t>Haystack, Vermont</t>
+          <t>Heart Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1933" t="n">
-        <v>42.9167</v>
+        <v>44.1822</v>
       </c>
       <c r="F1933" t="n">
-        <v>-72.91670000000001</v>
+        <v>-73.96939999999999</v>
       </c>
       <c r="G1933" t="n">
-        <v>910</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1934">
@@ -51966,26 +51930,26 @@
         <v>1932</v>
       </c>
       <c r="B1934" t="n">
-        <v>38501</v>
+        <v>38479</v>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>US_1C1-112</t>
+          <t>US_1A1-103O</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr">
         <is>
-          <t>Howe, Vermont</t>
+          <t>Big Moose Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1934" t="n">
-        <v>42.7856</v>
+        <v>43.8292</v>
       </c>
       <c r="F1934" t="n">
-        <v>-72.9875</v>
+        <v>-74.84999999999999</v>
       </c>
       <c r="G1934" t="n">
-        <v>587</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1935">
@@ -51993,26 +51957,26 @@
         <v>1933</v>
       </c>
       <c r="B1935" t="n">
-        <v>38502</v>
+        <v>38480</v>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>US_1E1-060E</t>
+          <t>US_1A1-105S</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>Bracey Pond, Maine</t>
+          <t>Cascade Lake Stream, Adirondacks</t>
         </is>
       </c>
       <c r="E1935" t="n">
-        <v>44.9625</v>
+        <v>43.7835</v>
       </c>
       <c r="F1935" t="n">
-        <v>-68.12220000000001</v>
+        <v>-74.8365</v>
       </c>
       <c r="G1935" t="n">
-        <v>117</v>
+        <v>553</v>
       </c>
     </row>
     <row r="1936">
@@ -52020,26 +51984,26 @@
         <v>1934</v>
       </c>
       <c r="B1936" t="n">
-        <v>38503</v>
+        <v>38481</v>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>US_1E1-131E</t>
+          <t>US_1A1-106O</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>Anderson Pond, Maine</t>
+          <t>Dart Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1936" t="n">
-        <v>44.6475</v>
+        <v>43.7972</v>
       </c>
       <c r="F1936" t="n">
-        <v>-68.0592</v>
+        <v>-74.8583</v>
       </c>
       <c r="G1936" t="n">
-        <v>66</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1937">
@@ -52047,26 +52011,26 @@
         <v>1935</v>
       </c>
       <c r="B1937" t="n">
-        <v>38504</v>
+        <v>38482</v>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>US_1E1-132E</t>
+          <t>US_1A1-107E</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>Little Long Pond, Maine</t>
+          <t>Little Echo Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1937" t="n">
-        <v>44.6375</v>
+        <v>44.3055</v>
       </c>
       <c r="F1937" t="n">
-        <v>-68.07810000000001</v>
+        <v>-74.39749999999999</v>
       </c>
       <c r="G1937" t="n">
-        <v>70</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1938">
@@ -52074,26 +52038,26 @@
         <v>1936</v>
       </c>
       <c r="B1938" t="n">
-        <v>38505</v>
+        <v>38483</v>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>US_1E1-133E</t>
+          <t>US_1A1-109O</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr">
         <is>
-          <t>Tilden Pond, Maine</t>
+          <t>Moss Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1938" t="n">
-        <v>44.6347</v>
+        <v>43.7861</v>
       </c>
       <c r="F1938" t="n">
-        <v>-68.0722</v>
+        <v>-74.84999999999999</v>
       </c>
       <c r="G1938" t="n">
-        <v>70</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1939">
@@ -52101,26 +52065,26 @@
         <v>1937</v>
       </c>
       <c r="B1939" t="n">
-        <v>38506</v>
+        <v>38484</v>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>US_1E1-134E</t>
+          <t>US_1A1-110O</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>Mud Pond, Maine</t>
+          <t>Lake Rondaxe, Adirondacks</t>
         </is>
       </c>
       <c r="E1939" t="n">
-        <v>44.633</v>
+        <v>43.7639</v>
       </c>
       <c r="F1939" t="n">
-        <v>-68.0908</v>
+        <v>-74.9055</v>
       </c>
       <c r="G1939" t="n">
-        <v>104</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1940">
@@ -52128,26 +52092,26 @@
         <v>1938</v>
       </c>
       <c r="B1940" t="n">
-        <v>38507</v>
+        <v>38485</v>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>US_1E1-135E</t>
+          <t>US_1A1-111S</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>Salmon Pond, Maine</t>
+          <t>Squash Pond Stream, Adirondacks</t>
         </is>
       </c>
       <c r="E1940" t="n">
-        <v>44.6314</v>
+        <v>43.8229</v>
       </c>
       <c r="F1940" t="n">
-        <v>-68.0861</v>
+        <v>-74.902586</v>
       </c>
       <c r="G1940" t="n">
-        <v>88</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1941">
@@ -52155,26 +52119,26 @@
         <v>1939</v>
       </c>
       <c r="B1941" t="n">
-        <v>38508</v>
+        <v>38486</v>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>US_1E2-060E</t>
+          <t>US_1A1-112S</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>Wiley Pond, Maine</t>
+          <t>West Pond Stream, Adirondacks</t>
         </is>
       </c>
       <c r="E1941" t="n">
-        <v>46.0011</v>
+        <v>43.8163</v>
       </c>
       <c r="F1941" t="n">
-        <v>-68.5406</v>
+        <v>-74.88702000000001</v>
       </c>
       <c r="G1941" t="n">
-        <v>235</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1942">
@@ -52182,26 +52146,26 @@
         <v>1940</v>
       </c>
       <c r="B1942" t="n">
-        <v>38509</v>
+        <v>38487</v>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>US_ME-0441E</t>
+          <t>US_1A1-113S</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>Second Pond, Maine</t>
+          <t>Bubb Lake Stream, Adirondacks</t>
         </is>
       </c>
       <c r="E1942" t="n">
-        <v>44.7028</v>
+        <v>43.78256</v>
       </c>
       <c r="F1942" t="n">
-        <v>-68.58329999999999</v>
+        <v>-74.83499999999999</v>
       </c>
       <c r="G1942" t="n">
-        <v>126</v>
+        <v>553</v>
       </c>
     </row>
     <row r="1943">
@@ -52209,26 +52173,26 @@
         <v>1941</v>
       </c>
       <c r="B1943" t="n">
-        <v>38510</v>
+        <v>38488</v>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>US_ME-2068E</t>
+          <t>US_1A2-028O</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr">
         <is>
-          <t>Abol Pond, Maine</t>
+          <t>Owen Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1943" t="n">
-        <v>45.8378</v>
+        <v>44.323</v>
       </c>
       <c r="F1943" t="n">
-        <v>-68.93219999999999</v>
+        <v>-73.9033</v>
       </c>
       <c r="G1943" t="n">
-        <v>181</v>
+        <v>515</v>
       </c>
     </row>
     <row r="1944">
@@ -52236,26 +52200,26 @@
         <v>1942</v>
       </c>
       <c r="B1944" t="n">
-        <v>38511</v>
+        <v>38489</v>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>US_ME-4474E</t>
+          <t>US_1A2-066O</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr">
         <is>
-          <t>Duck Pond, Maine</t>
+          <t>Jockeybush Lake, Adirondacks</t>
         </is>
       </c>
       <c r="E1944" t="n">
-        <v>44.7861</v>
+        <v>43.3022</v>
       </c>
       <c r="F1944" t="n">
-        <v>-68.1819</v>
+        <v>-74.58580000000001</v>
       </c>
       <c r="G1944" t="n">
-        <v>82</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1945">
@@ -52263,26 +52227,26 @@
         <v>1943</v>
       </c>
       <c r="B1945" t="n">
-        <v>38512</v>
+        <v>38490</v>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>US_ME-4575E</t>
+          <t>US_1A2-077O</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr">
         <is>
-          <t>Jellison Hl Pd, Maine</t>
+          <t>Clear Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1945" t="n">
-        <v>44.8119</v>
+        <v>44</v>
       </c>
       <c r="F1945" t="n">
-        <v>-68.4297</v>
+        <v>-73.8222</v>
       </c>
       <c r="G1945" t="n">
-        <v>123</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1946">
@@ -52290,26 +52254,26 @@
         <v>1944</v>
       </c>
       <c r="B1946" t="n">
-        <v>38513</v>
+        <v>38491</v>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>US_ME-4778E</t>
+          <t>US_1A1-078S</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t>Crystal Pond, Maine</t>
+          <t>Otter Lake Stream, Adirondacks</t>
         </is>
       </c>
       <c r="E1946" t="n">
-        <v>45.0308</v>
+        <v>43.182</v>
       </c>
       <c r="F1946" t="n">
-        <v>-68.1931</v>
+        <v>-74.5022</v>
       </c>
       <c r="G1946" t="n">
-        <v>113</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1947">
@@ -52317,26 +52281,26 @@
         <v>1945</v>
       </c>
       <c r="B1947" t="n">
-        <v>38514</v>
+        <v>38492</v>
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>US_ME-9997O</t>
+          <t>US_1A3-001O</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr">
         <is>
-          <t>Tunk Lake, Maine</t>
+          <t>Nate Pond, Adirondacks</t>
         </is>
       </c>
       <c r="E1947" t="n">
-        <v>44.5986</v>
+        <v>43.8592</v>
       </c>
       <c r="F1947" t="n">
-        <v>-68.0592</v>
+        <v>-74.0933</v>
       </c>
       <c r="G1947" t="n">
-        <v>63</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1948">
@@ -52344,26 +52308,26 @@
         <v>1946</v>
       </c>
       <c r="B1948" t="n">
-        <v>38515</v>
+        <v>38493</v>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>US_ME-9999E</t>
+          <t>US_1C1-078E</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr">
         <is>
-          <t>Partridge Pond, Maine</t>
+          <t>Bean Pond, Maine</t>
         </is>
       </c>
       <c r="E1948" t="n">
-        <v>44.8605</v>
+        <v>45.1272</v>
       </c>
       <c r="F1948" t="n">
-        <v>-68.4037</v>
+        <v>-69.9781</v>
       </c>
       <c r="G1948" t="n">
-        <v>172</v>
+        <v>381</v>
       </c>
     </row>
     <row r="1949">
@@ -52371,26 +52335,26 @@
         <v>1947</v>
       </c>
       <c r="B1949" t="n">
-        <v>38564</v>
+        <v>38494</v>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>PL05</t>
+          <t>US_1C1-089</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr">
         <is>
-          <t>Jegocin</t>
+          <t>Bourn, Vermont</t>
         </is>
       </c>
       <c r="E1949" t="n">
-        <v>53.66453</v>
+        <v>43.1055</v>
       </c>
       <c r="F1949" t="n">
-        <v>21.69997</v>
+        <v>-73.00279999999999</v>
       </c>
       <c r="G1949" t="n">
-        <v>122</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1950">
@@ -52398,26 +52362,26 @@
         <v>1948</v>
       </c>
       <c r="B1950" t="n">
-        <v>38565</v>
+        <v>38495</v>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>PL06</t>
+          <t>US_1C1-090</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr">
         <is>
-          <t>Glebokie</t>
+          <t>Grout, Vermont</t>
         </is>
       </c>
       <c r="E1950" t="n">
-        <v>52.496683</v>
+        <v>43.0455</v>
       </c>
       <c r="F1950" t="n">
-        <v>15.544737</v>
+        <v>-72.94580000000001</v>
       </c>
       <c r="G1950" t="n">
-        <v>50</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1951">
@@ -52425,26 +52389,26 @@
         <v>1949</v>
       </c>
       <c r="B1951" t="n">
-        <v>38566</v>
+        <v>38496</v>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>PL07</t>
+          <t>US_1C1-093</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>Krapsko Dlugie</t>
+          <t>Little Woodford, Vermont</t>
         </is>
       </c>
       <c r="E1951" t="n">
-        <v>53.36651</v>
+        <v>42.925</v>
       </c>
       <c r="F1951" t="n">
-        <v>16.60678</v>
+        <v>-73.06529999999999</v>
       </c>
       <c r="G1951" t="n">
-        <v>84</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1952">
@@ -52452,26 +52416,26 @@
         <v>1950</v>
       </c>
       <c r="B1952" t="n">
-        <v>38567</v>
+        <v>38497</v>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>PL08</t>
+          <t>US_1C1-097</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr">
         <is>
-          <t>Dlugie Wigierskie</t>
+          <t>Sunset, Vermont</t>
         </is>
       </c>
       <c r="E1952" t="n">
-        <v>54.02595</v>
+        <v>42.9194</v>
       </c>
       <c r="F1952" t="n">
-        <v>23.02094</v>
+        <v>-72.6833</v>
       </c>
       <c r="G1952" t="n">
-        <v>132</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1953">
@@ -52479,26 +52443,26 @@
         <v>1951</v>
       </c>
       <c r="B1953" t="n">
-        <v>38568</v>
+        <v>38498</v>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>PL09</t>
+          <t>US_1C1-100</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr">
         <is>
-          <t>Lekuk Wielki</t>
+          <t>Big Mud, Vermont</t>
         </is>
       </c>
       <c r="E1953" t="n">
-        <v>54.125678</v>
+        <v>43.3139</v>
       </c>
       <c r="F1953" t="n">
-        <v>22.026652</v>
+        <v>-72.93049999999999</v>
       </c>
       <c r="G1953" t="n">
-        <v>127</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1954">
@@ -52506,301 +52470,323 @@
         <v>1952</v>
       </c>
       <c r="B1954" t="n">
-        <v>38553</v>
+        <v>38499</v>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>IE11</t>
+          <t>US_1C1-101</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr">
         <is>
-          <t>Donegal, Barra, Mid Lake</t>
+          <t>Branch, Vermont</t>
         </is>
       </c>
       <c r="E1954" t="n">
-        <v>54.95574</v>
+        <v>43.0811</v>
       </c>
       <c r="F1954" t="n">
-        <v>-8.103999999999999</v>
-      </c>
-      <c r="G1954" t="inlineStr"/>
+        <v>-73.01860000000001</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>802</v>
+      </c>
     </row>
     <row r="1955">
       <c r="A1955" s="1" t="n">
         <v>1953</v>
       </c>
       <c r="B1955" t="n">
-        <v>38554</v>
+        <v>38500</v>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>IE12</t>
+          <t>US_1C1-110</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr">
         <is>
-          <t>Galway, Bofin, Mid Lake</t>
+          <t>Haystack, Vermont</t>
         </is>
       </c>
       <c r="E1955" t="n">
-        <v>53.4377</v>
+        <v>42.9167</v>
       </c>
       <c r="F1955" t="n">
-        <v>-9.45429</v>
-      </c>
-      <c r="G1955" t="inlineStr"/>
+        <v>-72.91670000000001</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>910</v>
+      </c>
     </row>
     <row r="1956">
       <c r="A1956" s="1" t="n">
         <v>1954</v>
       </c>
       <c r="B1956" t="n">
-        <v>38555</v>
+        <v>38501</v>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>IE13</t>
+          <t>US_1C1-112</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr">
         <is>
-          <t>Kerry, Cam, Mid Lake</t>
+          <t>Howe, Vermont</t>
         </is>
       </c>
       <c r="E1956" t="n">
-        <v>52.20597</v>
+        <v>42.7856</v>
       </c>
       <c r="F1956" t="n">
-        <v>-10.05228</v>
-      </c>
-      <c r="G1956" t="inlineStr"/>
+        <v>-72.9875</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row r="1957">
       <c r="A1957" s="1" t="n">
         <v>1955</v>
       </c>
       <c r="B1957" t="n">
-        <v>38556</v>
+        <v>38502</v>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>IE14</t>
+          <t>US_1E1-060E</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr">
         <is>
-          <t>Wicklow, Dan, Mid Lake</t>
+          <t>Bracey Pond, Maine</t>
         </is>
       </c>
       <c r="E1957" t="n">
-        <v>53.06933</v>
+        <v>44.9625</v>
       </c>
       <c r="F1957" t="n">
-        <v>-6.27918</v>
-      </c>
-      <c r="G1957" t="inlineStr"/>
+        <v>-68.12220000000001</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="1958">
       <c r="A1958" s="1" t="n">
         <v>1956</v>
       </c>
       <c r="B1958" t="n">
-        <v>38557</v>
+        <v>38503</v>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>IE15</t>
+          <t>US_1E1-131E</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>Clare, Doo, Mid Lake</t>
+          <t>Anderson Pond, Maine</t>
         </is>
       </c>
       <c r="E1958" t="n">
-        <v>52.79277</v>
+        <v>44.6475</v>
       </c>
       <c r="F1958" t="n">
-        <v>-9.304869999999999</v>
-      </c>
-      <c r="G1958" t="inlineStr"/>
+        <v>-68.0592</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="1959">
       <c r="A1959" s="1" t="n">
         <v>1957</v>
       </c>
       <c r="B1959" t="n">
-        <v>38558</v>
+        <v>38504</v>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>IE16</t>
+          <t>US_1E1-132E</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>Sligo, Easky, Mid Lake</t>
+          <t>Little Long Pond, Maine</t>
         </is>
       </c>
       <c r="E1959" t="n">
-        <v>54.15336</v>
+        <v>44.6375</v>
       </c>
       <c r="F1959" t="n">
-        <v>-8.85182</v>
-      </c>
-      <c r="G1959" t="inlineStr"/>
+        <v>-68.07810000000001</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="1960">
       <c r="A1960" s="1" t="n">
         <v>1958</v>
       </c>
       <c r="B1960" t="n">
-        <v>38559</v>
+        <v>38505</v>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>IE17</t>
+          <t>US_1E1-133E</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr">
         <is>
-          <t>Galway, Fadda, Mid Lake</t>
+          <t>Tilden Pond, Maine</t>
         </is>
       </c>
       <c r="E1960" t="n">
-        <v>53.44326</v>
+        <v>44.6347</v>
       </c>
       <c r="F1960" t="n">
-        <v>-10.00595</v>
-      </c>
-      <c r="G1960" t="inlineStr"/>
+        <v>-68.0722</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" s="1" t="n">
         <v>1959</v>
       </c>
       <c r="B1961" t="n">
-        <v>38560</v>
+        <v>38506</v>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>IE18</t>
+          <t>US_1E1-134E</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr">
         <is>
-          <t>Mayo, Glencullin, Mid Lake</t>
+          <t>Mud Pond, Maine</t>
         </is>
       </c>
       <c r="E1961" t="n">
-        <v>53.66339</v>
+        <v>44.633</v>
       </c>
       <c r="F1961" t="n">
-        <v>-9.786569999999999</v>
-      </c>
-      <c r="G1961" t="inlineStr"/>
+        <v>-68.0908</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="1962">
       <c r="A1962" s="1" t="n">
         <v>1960</v>
       </c>
       <c r="B1962" t="n">
-        <v>38561</v>
+        <v>38507</v>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>IE19</t>
+          <t>US_1E1-135E</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr">
         <is>
-          <t>Galway, Nahasleam, Mid Lake</t>
+          <t>Salmon Pond, Maine</t>
         </is>
       </c>
       <c r="E1962" t="n">
-        <v>53.43684</v>
+        <v>44.6314</v>
       </c>
       <c r="F1962" t="n">
-        <v>-9.54759</v>
-      </c>
-      <c r="G1962" t="inlineStr"/>
+        <v>-68.0861</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="1963">
       <c r="A1963" s="1" t="n">
         <v>1961</v>
       </c>
       <c r="B1963" t="n">
-        <v>38562</v>
+        <v>38508</v>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>IE20</t>
+          <t>US_1E2-060E</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr">
         <is>
-          <t>Clare, Naminna, Mid Lake</t>
+          <t>Wiley Pond, Maine</t>
         </is>
       </c>
       <c r="E1963" t="n">
-        <v>52.78408</v>
+        <v>46.0011</v>
       </c>
       <c r="F1963" t="n">
-        <v>-9.22064</v>
-      </c>
-      <c r="G1963" t="inlineStr"/>
+        <v>-68.5406</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="1964">
       <c r="A1964" s="1" t="n">
         <v>1962</v>
       </c>
       <c r="B1964" t="n">
-        <v>38563</v>
+        <v>38509</v>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>IE21</t>
+          <t>US_ME-0441E</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr">
         <is>
-          <t>Kerry, Upper</t>
+          <t>Second Pond, Maine</t>
         </is>
       </c>
       <c r="E1964" t="n">
-        <v>51.9809</v>
+        <v>44.7028</v>
       </c>
       <c r="F1964" t="n">
-        <v>-9.588150000000001</v>
-      </c>
-      <c r="G1964" t="inlineStr"/>
+        <v>-68.58329999999999</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="1965">
       <c r="A1965" s="1" t="n">
         <v>1963</v>
       </c>
       <c r="B1965" t="n">
-        <v>38605</v>
+        <v>38510</v>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>NL_AGE</t>
+          <t>US_ME-2068E</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr">
         <is>
-          <t>Achterste Goorven</t>
+          <t>Abol Pond, Maine</t>
         </is>
       </c>
       <c r="E1965" t="n">
-        <v>51.5647</v>
+        <v>45.8378</v>
       </c>
       <c r="F1965" t="n">
-        <v>5.2138</v>
+        <v>-68.93219999999999</v>
       </c>
       <c r="G1965" t="n">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1966">
@@ -52808,26 +52794,26 @@
         <v>1964</v>
       </c>
       <c r="B1966" t="n">
-        <v>38606</v>
+        <v>38511</v>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>NL_GER-GEP</t>
+          <t>US_ME-4474E</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr">
         <is>
-          <t>Gerritsfles</t>
+          <t>Duck Pond, Maine</t>
         </is>
       </c>
       <c r="E1966" t="n">
-        <v>52.1598</v>
+        <v>44.7861</v>
       </c>
       <c r="F1966" t="n">
-        <v>5.818</v>
+        <v>-68.1819</v>
       </c>
       <c r="G1966" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1967">
@@ -52835,26 +52821,26 @@
         <v>1965</v>
       </c>
       <c r="B1967" t="n">
-        <v>38607</v>
+        <v>38512</v>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>NL_KLI</t>
+          <t>US_ME-4575E</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr">
         <is>
-          <t>Kliplo</t>
+          <t>Jellison Hl Pd, Maine</t>
         </is>
       </c>
       <c r="E1967" t="n">
-        <v>52.8345</v>
+        <v>44.8119</v>
       </c>
       <c r="F1967" t="n">
-        <v>6.4384</v>
+        <v>-68.4297</v>
       </c>
       <c r="G1967" t="n">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1968">
@@ -52862,51 +52848,53 @@
         <v>1966</v>
       </c>
       <c r="B1968" t="n">
-        <v>38545</v>
+        <v>38513</v>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>MD01</t>
+          <t>US_ME-4778E</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr">
         <is>
-          <t>Beleu Lake</t>
+          <t>Crystal Pond, Maine</t>
         </is>
       </c>
       <c r="E1968" t="n">
-        <v>45.5867</v>
+        <v>45.0308</v>
       </c>
       <c r="F1968" t="n">
-        <v>28.1527999999999</v>
-      </c>
-      <c r="G1968" t="inlineStr"/>
+        <v>-68.1931</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="1969">
       <c r="A1969" s="1" t="n">
         <v>1967</v>
       </c>
       <c r="B1969" t="n">
-        <v>38546</v>
+        <v>38514</v>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>MD02</t>
+          <t>US_ME-9997O</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr">
         <is>
-          <t>Salcia Mare River</t>
+          <t>Tunk Lake, Maine</t>
         </is>
       </c>
       <c r="E1969" t="n">
-        <v>45.8081</v>
+        <v>44.5986</v>
       </c>
       <c r="F1969" t="n">
-        <v>28.5375</v>
+        <v>-68.0592</v>
       </c>
       <c r="G1969" t="n">
-        <v>150</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1970">
@@ -52914,26 +52902,26 @@
         <v>1968</v>
       </c>
       <c r="B1970" t="n">
-        <v>38547</v>
+        <v>38515</v>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>IT07</t>
+          <t>US_ME-9999E</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr">
         <is>
-          <t>Lake Capezzone</t>
+          <t>Partridge Pond, Maine</t>
         </is>
       </c>
       <c r="E1970" t="n">
-        <v>45.9382</v>
+        <v>44.8605</v>
       </c>
       <c r="F1970" t="n">
-        <v>8.209479999999999</v>
+        <v>-68.4037</v>
       </c>
       <c r="G1970" t="n">
-        <v>2100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1971">
@@ -52941,26 +52929,26 @@
         <v>1969</v>
       </c>
       <c r="B1971" t="n">
-        <v>38548</v>
+        <v>38564</v>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>IT08</t>
+          <t>PL05</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr">
         <is>
-          <t>Lake Grande</t>
+          <t>Jegocin</t>
         </is>
       </c>
       <c r="E1971" t="n">
-        <v>46.00131</v>
+        <v>53.66453</v>
       </c>
       <c r="F1971" t="n">
-        <v>8.078200000000001</v>
+        <v>21.69997</v>
       </c>
       <c r="G1971" t="n">
-        <v>2269</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1972">
@@ -52968,26 +52956,26 @@
         <v>1970</v>
       </c>
       <c r="B1972" t="n">
-        <v>38549</v>
+        <v>38565</v>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>IT09</t>
+          <t>PL06</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>Lake Variola Superiore</t>
+          <t>Glebokie</t>
         </is>
       </c>
       <c r="E1972" t="n">
-        <v>46.17569</v>
+        <v>52.496683</v>
       </c>
       <c r="F1972" t="n">
-        <v>8.44098</v>
+        <v>15.544737</v>
       </c>
       <c r="G1972" t="n">
-        <v>2190</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1973">
@@ -52995,26 +52983,26 @@
         <v>1971</v>
       </c>
       <c r="B1973" t="n">
-        <v>38550</v>
+        <v>38566</v>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>IT10</t>
+          <t>PL07</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr">
         <is>
-          <t>Lake Variola Inferiore lungo</t>
+          <t>Krapsko Dlugie</t>
         </is>
       </c>
       <c r="E1973" t="n">
-        <v>46.17569</v>
+        <v>53.36651</v>
       </c>
       <c r="F1973" t="n">
-        <v>8.216900000000001</v>
+        <v>16.60678</v>
       </c>
       <c r="G1973" t="n">
-        <v>2117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1974">
@@ -53022,26 +53010,26 @@
         <v>1972</v>
       </c>
       <c r="B1974" t="n">
-        <v>38551</v>
+        <v>38567</v>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>IT11</t>
+          <t>PL08</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>Lake Gelato</t>
+          <t>Dlugie Wigierskie</t>
         </is>
       </c>
       <c r="E1974" t="n">
-        <v>46.2486</v>
+        <v>54.02595</v>
       </c>
       <c r="F1974" t="n">
-        <v>8.44098</v>
+        <v>23.02094</v>
       </c>
       <c r="G1974" t="n">
-        <v>2087</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1975">
@@ -53049,26 +53037,26 @@
         <v>1973</v>
       </c>
       <c r="B1975" t="n">
-        <v>38552</v>
+        <v>38568</v>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>IT12</t>
+          <t>PL09</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr">
         <is>
-          <t>Lake Muino Superiore</t>
+          <t>Lekuk Wielki</t>
         </is>
       </c>
       <c r="E1975" t="n">
-        <v>46.1807</v>
+        <v>54.125678</v>
       </c>
       <c r="F1975" t="n">
-        <v>8.4895</v>
+        <v>22.026652</v>
       </c>
       <c r="G1975" t="n">
-        <v>1960</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1976">
@@ -53076,52 +53064,622 @@
         <v>1974</v>
       </c>
       <c r="B1976" t="n">
-        <v>38705</v>
+        <v>38553</v>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>PL10</t>
+          <t>IE11</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr">
         <is>
-          <t>Paraseta</t>
+          <t>Donegal, Barra, Mid Lake</t>
         </is>
       </c>
       <c r="E1976" t="n">
-        <v>49.2278123</v>
+        <v>54.9543905</v>
       </c>
       <c r="F1976" t="n">
-        <v>20.0088425</v>
-      </c>
-      <c r="G1976" t="n">
-        <v>84</v>
-      </c>
+        <v>-8.1015959</v>
+      </c>
+      <c r="G1976" t="inlineStr"/>
     </row>
     <row r="1977">
       <c r="A1977" s="1" t="n">
         <v>1975</v>
       </c>
       <c r="B1977" t="n">
+        <v>38554</v>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>IE12</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>Galway, Bofin, Mid Lake</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>53.4361629</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>-9.4490862</v>
+      </c>
+      <c r="G1977" t="inlineStr"/>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="1" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>38555</v>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>IE13</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>Kerry, Cam, Shore</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>52.2043194</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>-10.0493193</v>
+      </c>
+      <c r="G1978" t="inlineStr"/>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="1" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>38556</v>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>IE14</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>Wicklow, Dan, Mid Lake</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>53.068863</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>-6.2787281</v>
+      </c>
+      <c r="G1979" t="inlineStr"/>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="1" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>38557</v>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>IE15</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>Clare, Doo, Mid Lake</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>52.7917606</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>-9.315159100000001</v>
+      </c>
+      <c r="G1980" t="inlineStr"/>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="1" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>38558</v>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>IE16</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>Sligo, Easky, Mid Lake</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>54.1533668</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>-8.851805499999999</v>
+      </c>
+      <c r="G1981" t="inlineStr"/>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="1" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>38559</v>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>IE17</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>Galway, Fadda, Mid Lake</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>53.4393744</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>-10.0034685</v>
+      </c>
+      <c r="G1982" t="inlineStr"/>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="1" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>38560</v>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>IE18</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>Mayo, Glencullin, Mid Lake</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>53.664361</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>-9.7878758</v>
+      </c>
+      <c r="G1983" t="inlineStr"/>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="1" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>38561</v>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>IE19</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>Galway, Nahasleam, Shore</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>53.437144</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>-9.5429488</v>
+      </c>
+      <c r="G1984" t="inlineStr"/>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="1" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B1985" t="n">
+        <v>38562</v>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>IE20</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>Clare, Naminna, Shore</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>52.7839276</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>-9.214722200000001</v>
+      </c>
+      <c r="G1985" t="inlineStr"/>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="1" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B1986" t="n">
+        <v>38563</v>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>IE21</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>Kerry, Upper, Mid Lake</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>51.9799821</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>-9.5982479</v>
+      </c>
+      <c r="G1986" t="inlineStr"/>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="1" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B1987" t="n">
+        <v>38605</v>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>NL_AGE</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>Achterste Goorven</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>51.5647</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>5.2138</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B1988" t="n">
+        <v>38606</v>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>NL_GER-GEP</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>Gerritsfles</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>52.1598</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>5.818</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="1" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B1989" t="n">
+        <v>38607</v>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>NL_KLI</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>Kliplo</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>52.8345</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>6.4384</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B1990" t="n">
+        <v>38545</v>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>MD01</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>Beleu Lake</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>45.5867</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>28.1527999999999</v>
+      </c>
+      <c r="G1990" t="inlineStr"/>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="1" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B1991" t="n">
+        <v>38546</v>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>MD02</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>Salcia Mare River</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>45.8081</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>28.5375</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1992" t="n">
+        <v>38547</v>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>IT07</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>Lake Capezzone</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>45.9382</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>8.209479999999999</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="1" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B1993" t="n">
+        <v>38548</v>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>IT08</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>Lake Grande</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>46.00131</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>8.078200000000001</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B1994" t="n">
+        <v>38549</v>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>IT09</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>Lake Variola Superiore</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>46.17569</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>8.44098</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B1995" t="n">
+        <v>38550</v>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>IT10</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>Lake Variola Inferiore lungo</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>46.17569</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>8.216900000000001</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B1996" t="n">
+        <v>38551</v>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>IT11</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>Lake Gelato</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>46.2486</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>8.44098</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="1" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B1997" t="n">
+        <v>38552</v>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>IT12</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>Lake Muino Superiore</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>46.1807</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>8.4895</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="1" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B1998" t="n">
+        <v>38705</v>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>PL10</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>Paraseta</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>53.779006</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>16.494282</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="1" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B1999" t="n">
         <v>38706</v>
       </c>
-      <c r="C1977" t="inlineStr">
+      <c r="C1999" t="inlineStr">
         <is>
           <t>PL11</t>
         </is>
       </c>
-      <c r="D1977" t="inlineStr">
+      <c r="D1999" t="inlineStr">
         <is>
           <t>Bystrzanka</t>
         </is>
       </c>
-      <c r="E1977" t="n">
-        <v>49.2293052</v>
-      </c>
-      <c r="F1977" t="n">
-        <v>19.9977406</v>
-      </c>
-      <c r="G1977" t="n">
+      <c r="E1999" t="n">
+        <v>49.630141</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>21.118298</v>
+      </c>
+      <c r="G1999" t="n">
         <v>299</v>
       </c>
     </row>
